--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4A458F-F7DA-4C55-9A8D-3C9794F0DA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A790F-D046-440F-97CE-B59CA8CD5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1063,6 +1063,306 @@
         <v>35</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2050</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" ref="C42:C52" si="2">C41</f>
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2100</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2150</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2200</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2250</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2300</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2350</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2450</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2500</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2550</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2600</v>
+      </c>
+      <c r="C53" s="1">
+        <f>C52</f>
+        <v>-1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2650</v>
+      </c>
+      <c r="C54" s="1">
+        <f>C53</f>
+        <v>-1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2700</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55:C61" si="3">C54</f>
+        <v>-1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2750</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D56" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2850</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2900</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2950</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601A790F-D046-440F-97CE-B59CA8CD5576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC82189-649F-46E0-BFF5-85D425119070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1266,7 @@
         <v>2700</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55:C61" si="3">C54</f>
+        <f t="shared" ref="C55:C101" si="3">C54</f>
         <v>-1</v>
       </c>
       <c r="D55" s="1">
@@ -1361,6 +1361,606 @@
       </c>
       <c r="D61" s="1">
         <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3050</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3100</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3150</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3200</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3250</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3300</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3350</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3400</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3450</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3500</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D71" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3550</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3650</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>3700</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3750</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D76" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>3800</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>3850</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>3900</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>3950</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D81" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4050</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4100</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4150</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>4200</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4250</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D86" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4300</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4350</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>4400</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4450</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4500</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D91" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4550</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4600</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>4650</v>
+      </c>
+      <c r="C94" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4700</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4750</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D96" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4800</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4850</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>4900</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>4950</v>
+      </c>
+      <c r="C100" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C101" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC82189-649F-46E0-BFF5-85D425119070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D68F8-CE23-4E85-B9C5-2D89139356CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1266,7 @@
         <v>2700</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55:C101" si="3">C54</f>
+        <f t="shared" ref="C55:C121" si="3">C54</f>
         <v>-1</v>
       </c>
       <c r="D55" s="1">
@@ -1961,6 +1961,306 @@
       </c>
       <c r="D101" s="1">
         <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5050</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5100</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5150</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5200</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5250</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5300</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>5350</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5400</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5450</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5500</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5550</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5600</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5650</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5700</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5750</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5800</v>
+      </c>
+      <c r="C117" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5850</v>
+      </c>
+      <c r="C118" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C119" s="1">
+        <f t="shared" ref="C119" si="4">C118</f>
+        <v>-1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5950</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9D68F8-CE23-4E85-B9C5-2D89139356CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742A4C3-77F7-4E20-BAE3-3FF7ABF3B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1266,7 +1266,7 @@
         <v>2700</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" ref="C55:C121" si="3">C54</f>
+        <f t="shared" ref="C55:C122" si="3">C54</f>
         <v>-1</v>
       </c>
       <c r="D55" s="1">
@@ -2261,6 +2261,606 @@
       </c>
       <c r="D121" s="1">
         <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6050</v>
+      </c>
+      <c r="C122" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>6100</v>
+      </c>
+      <c r="C123" s="1">
+        <f t="shared" ref="C123:C161" si="5">C122</f>
+        <v>-1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>6150</v>
+      </c>
+      <c r="C124" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>6250</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>6300</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>6350</v>
+      </c>
+      <c r="C128" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>6400</v>
+      </c>
+      <c r="C129" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>6450</v>
+      </c>
+      <c r="C130" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>6500</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>6550</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6600</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>6650</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>6700</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>6750</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>6800</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>6850</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>6900</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>6950</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7000</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7050</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7100</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7150</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7200</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7250</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7300</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>7350</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D149" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7450</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7500</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D151" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>7550</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7600</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>7650</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D154" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>7700</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>7750</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D156" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>7800</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>7850</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>7900</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D159" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>7950</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>8000</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D161" s="1">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3742A4C3-77F7-4E20-BAE3-3FF7ABF3B71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A489C0-1C45-493C-AD16-49DDCFACDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2286,7 +2286,7 @@
         <v>6100</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" ref="C123:C161" si="5">C122</f>
+        <f t="shared" ref="C123:C186" si="5">C122</f>
         <v>-1</v>
       </c>
       <c r="D123" s="1">
@@ -2861,6 +2861,606 @@
       </c>
       <c r="D161" s="1">
         <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>8050</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>8100</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>8150</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D164" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>8200</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8250</v>
+      </c>
+      <c r="C166" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D166" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>8300</v>
+      </c>
+      <c r="C167" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8350</v>
+      </c>
+      <c r="C168" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>8400</v>
+      </c>
+      <c r="C169" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D169" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8450</v>
+      </c>
+      <c r="C170" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>8500</v>
+      </c>
+      <c r="C171" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D171" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>8550</v>
+      </c>
+      <c r="C172" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>8600</v>
+      </c>
+      <c r="C173" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D173" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>8650</v>
+      </c>
+      <c r="C174" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D174" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>8700</v>
+      </c>
+      <c r="C175" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>8750</v>
+      </c>
+      <c r="C176" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D176" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C177" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C178" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>8900</v>
+      </c>
+      <c r="C179" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D179" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>8950</v>
+      </c>
+      <c r="C180" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C181" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D181" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C182" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>9100</v>
+      </c>
+      <c r="C183" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>9150</v>
+      </c>
+      <c r="C184" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D184" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>9200</v>
+      </c>
+      <c r="C185" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>9250</v>
+      </c>
+      <c r="C186" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="D186" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>9300</v>
+      </c>
+      <c r="C187" s="1">
+        <f t="shared" ref="C187:C201" si="6">C186</f>
+        <v>-1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>9350</v>
+      </c>
+      <c r="C188" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>9400</v>
+      </c>
+      <c r="C189" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D189" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>9450</v>
+      </c>
+      <c r="C190" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>9500</v>
+      </c>
+      <c r="C191" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D191" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>9550</v>
+      </c>
+      <c r="C192" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>9600</v>
+      </c>
+      <c r="C193" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>9650</v>
+      </c>
+      <c r="C194" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D194" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9700</v>
+      </c>
+      <c r="C195" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9750</v>
+      </c>
+      <c r="C196" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D196" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>9800</v>
+      </c>
+      <c r="C197" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>9850</v>
+      </c>
+      <c r="C198" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>9900</v>
+      </c>
+      <c r="C199" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D199" s="1">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>9950</v>
+      </c>
+      <c r="C200" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C201" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D201" s="1">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A489C0-1C45-493C-AD16-49DDCFACDDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE55D6-5E4E-4B79-B94C-BF991A75D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="D198"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3246,7 +3246,7 @@
         <v>9300</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" ref="C187:C201" si="6">C186</f>
+        <f t="shared" ref="C187:C241" si="6">C186</f>
         <v>-1</v>
       </c>
       <c r="D187" s="1">
@@ -3461,6 +3461,606 @@
       </c>
       <c r="D201" s="1">
         <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>10050</v>
+      </c>
+      <c r="C202" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>10100</v>
+      </c>
+      <c r="C203" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>10150</v>
+      </c>
+      <c r="C204" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>10200</v>
+      </c>
+      <c r="C205" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>10250</v>
+      </c>
+      <c r="C206" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D206" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>10300</v>
+      </c>
+      <c r="C207" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>10350</v>
+      </c>
+      <c r="C208" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>10400</v>
+      </c>
+      <c r="C209" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D209" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>10450</v>
+      </c>
+      <c r="C210" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>10500</v>
+      </c>
+      <c r="C211" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D211" s="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>10550</v>
+      </c>
+      <c r="C212" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C213" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>10650</v>
+      </c>
+      <c r="C214" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D214" s="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>10700</v>
+      </c>
+      <c r="C215" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10750</v>
+      </c>
+      <c r="C216" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D216" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>10800</v>
+      </c>
+      <c r="C217" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>10850</v>
+      </c>
+      <c r="C218" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>10900</v>
+      </c>
+      <c r="C219" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>10950</v>
+      </c>
+      <c r="C220" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>11000</v>
+      </c>
+      <c r="C221" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D221" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>11050</v>
+      </c>
+      <c r="C222" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>11100</v>
+      </c>
+      <c r="C223" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>11150</v>
+      </c>
+      <c r="C224" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D224" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>11200</v>
+      </c>
+      <c r="C225" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>11250</v>
+      </c>
+      <c r="C226" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D226" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>11300</v>
+      </c>
+      <c r="C227" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>11350</v>
+      </c>
+      <c r="C228" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D228" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>11400</v>
+      </c>
+      <c r="C229" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>11450</v>
+      </c>
+      <c r="C230" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D230" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>11500</v>
+      </c>
+      <c r="C231" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D231" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>11550</v>
+      </c>
+      <c r="C232" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>11600</v>
+      </c>
+      <c r="C233" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>11650</v>
+      </c>
+      <c r="C234" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D234" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>11700</v>
+      </c>
+      <c r="C235" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D235" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>11750</v>
+      </c>
+      <c r="C236" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D236" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>11800</v>
+      </c>
+      <c r="C237" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>11850</v>
+      </c>
+      <c r="C238" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>11900</v>
+      </c>
+      <c r="C239" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D239" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>11950</v>
+      </c>
+      <c r="C240" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>12000</v>
+      </c>
+      <c r="C241" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D241" s="1">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE55D6-5E4E-4B79-B94C-BF991A75D87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16EB23-8C3F-4B6A-8513-9F0B2D6B54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicUpgrade" sheetId="1" r:id="rId1"/>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B235" sqref="B235"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3246,7 +3246,7 @@
         <v>9300</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" ref="C187:C241" si="6">C186</f>
+        <f t="shared" ref="C187:C250" si="6">C186</f>
         <v>-1</v>
       </c>
       <c r="D187" s="1">
@@ -4061,6 +4061,906 @@
       </c>
       <c r="D241" s="1">
         <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>12050</v>
+      </c>
+      <c r="C242" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>12100</v>
+      </c>
+      <c r="C243" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>12150</v>
+      </c>
+      <c r="C244" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D244" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>12200</v>
+      </c>
+      <c r="C245" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>12250</v>
+      </c>
+      <c r="C246" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D246" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>12300</v>
+      </c>
+      <c r="C247" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>12350</v>
+      </c>
+      <c r="C248" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>12400</v>
+      </c>
+      <c r="C249" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D249" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>12450</v>
+      </c>
+      <c r="C250" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2">
+        <v>12500</v>
+      </c>
+      <c r="C251" s="1">
+        <f t="shared" ref="C251:C301" si="7">C250</f>
+        <v>-1</v>
+      </c>
+      <c r="D251" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2">
+        <v>12550</v>
+      </c>
+      <c r="C252" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>12600</v>
+      </c>
+      <c r="C253" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D253" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2">
+        <v>12650</v>
+      </c>
+      <c r="C254" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D254" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2">
+        <v>12700</v>
+      </c>
+      <c r="C255" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D255" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2">
+        <v>12750</v>
+      </c>
+      <c r="C256" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D256" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C257" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>12850</v>
+      </c>
+      <c r="C258" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2">
+        <v>12900</v>
+      </c>
+      <c r="C259" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D259" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2">
+        <v>12950</v>
+      </c>
+      <c r="C260" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2">
+        <v>13000</v>
+      </c>
+      <c r="C261" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D261" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>13050</v>
+      </c>
+      <c r="C262" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2">
+        <v>13100</v>
+      </c>
+      <c r="C263" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D263" s="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2">
+        <v>13150</v>
+      </c>
+      <c r="C264" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D264" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2">
+        <v>13200</v>
+      </c>
+      <c r="C265" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>13250</v>
+      </c>
+      <c r="C266" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D266" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2">
+        <v>13300</v>
+      </c>
+      <c r="C267" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2">
+        <v>13350</v>
+      </c>
+      <c r="C268" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2">
+        <v>13400</v>
+      </c>
+      <c r="C269" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D269" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2">
+        <v>13450</v>
+      </c>
+      <c r="C270" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>13500</v>
+      </c>
+      <c r="C271" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D271" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2">
+        <v>13550</v>
+      </c>
+      <c r="C272" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2">
+        <v>13600</v>
+      </c>
+      <c r="C273" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2">
+        <v>13650</v>
+      </c>
+      <c r="C274" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D274" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>13700</v>
+      </c>
+      <c r="C275" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D275" s="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2">
+        <v>13750</v>
+      </c>
+      <c r="C276" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D276" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2">
+        <v>13800</v>
+      </c>
+      <c r="C277" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2">
+        <v>13850</v>
+      </c>
+      <c r="C278" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>13900</v>
+      </c>
+      <c r="C279" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D279" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>13950</v>
+      </c>
+      <c r="C280" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>14000</v>
+      </c>
+      <c r="C281" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>14050</v>
+      </c>
+      <c r="C282" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2">
+        <v>14100</v>
+      </c>
+      <c r="C283" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>14150</v>
+      </c>
+      <c r="C284" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D284" s="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2">
+        <v>14200</v>
+      </c>
+      <c r="C285" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2">
+        <v>14250</v>
+      </c>
+      <c r="C286" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D286" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2">
+        <v>14300</v>
+      </c>
+      <c r="C287" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>14350</v>
+      </c>
+      <c r="C288" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2">
+        <v>14400</v>
+      </c>
+      <c r="C289" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D289" s="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2">
+        <v>14450</v>
+      </c>
+      <c r="C290" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2">
+        <v>14500</v>
+      </c>
+      <c r="C291" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D291" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2">
+        <v>14550</v>
+      </c>
+      <c r="C292" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D292" s="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2">
+        <v>14600</v>
+      </c>
+      <c r="C293" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D293" s="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2">
+        <v>14650</v>
+      </c>
+      <c r="C294" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D294" s="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>14700</v>
+      </c>
+      <c r="C295" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D295" s="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2">
+        <v>14750</v>
+      </c>
+      <c r="C296" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D296" s="1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2">
+        <v>14800</v>
+      </c>
+      <c r="C297" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D297" s="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2">
+        <v>14850</v>
+      </c>
+      <c r="C298" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D298" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2">
+        <v>14900</v>
+      </c>
+      <c r="C299" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D299" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2">
+        <v>14950</v>
+      </c>
+      <c r="C300" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D300" s="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2">
+        <v>15000</v>
+      </c>
+      <c r="C301" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D301" s="1">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB16EB23-8C3F-4B6A-8513-9F0B2D6B54E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B577984-92D8-4D88-A34A-1D477E95D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B294" sqref="B294"/>
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4206,7 +4206,7 @@
         <v>12500</v>
       </c>
       <c r="C251" s="1">
-        <f t="shared" ref="C251:C301" si="7">C250</f>
+        <f t="shared" ref="C251:C314" si="7">C250</f>
         <v>-1</v>
       </c>
       <c r="D251" s="1">
@@ -4961,6 +4961,306 @@
       </c>
       <c r="D301" s="1">
         <v>295</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>15050</v>
+      </c>
+      <c r="C302" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D302" s="1">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2">
+        <v>15100</v>
+      </c>
+      <c r="C303" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D303" s="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2">
+        <v>15150</v>
+      </c>
+      <c r="C304" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D304" s="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2">
+        <v>15200</v>
+      </c>
+      <c r="C305" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D305" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2">
+        <v>15250</v>
+      </c>
+      <c r="C306" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D306" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2">
+        <v>15300</v>
+      </c>
+      <c r="C307" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D307" s="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2">
+        <v>15350</v>
+      </c>
+      <c r="C308" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D308" s="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>15400</v>
+      </c>
+      <c r="C309" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D309" s="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2">
+        <v>15450</v>
+      </c>
+      <c r="C310" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D310" s="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2">
+        <v>15500</v>
+      </c>
+      <c r="C311" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D311" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2">
+        <v>15550</v>
+      </c>
+      <c r="C312" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D312" s="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2">
+        <v>15600</v>
+      </c>
+      <c r="C313" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D313" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2">
+        <v>15650</v>
+      </c>
+      <c r="C314" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="D314" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2">
+        <v>15700</v>
+      </c>
+      <c r="C315" s="1">
+        <f t="shared" ref="C315:C321" si="8">C314</f>
+        <v>-1</v>
+      </c>
+      <c r="D315" s="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>15750</v>
+      </c>
+      <c r="C316" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D316" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2">
+        <v>15800</v>
+      </c>
+      <c r="C317" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D317" s="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2">
+        <v>15850</v>
+      </c>
+      <c r="C318" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D318" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2">
+        <v>15900</v>
+      </c>
+      <c r="C319" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D319" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2">
+        <v>15950</v>
+      </c>
+      <c r="C320" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D320" s="1">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2">
+        <v>16000</v>
+      </c>
+      <c r="C321" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D321" s="1">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B577984-92D8-4D88-A34A-1D477E95D47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38C34F-45EF-4571-87C1-114A979764CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B320" sqref="B320"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5166,7 +5166,7 @@
         <v>15700</v>
       </c>
       <c r="C315" s="1">
-        <f t="shared" ref="C315:C321" si="8">C314</f>
+        <f t="shared" ref="C315:C378" si="8">C314</f>
         <v>-1</v>
       </c>
       <c r="D315" s="1">
@@ -5261,6 +5261,1206 @@
       </c>
       <c r="D321" s="1">
         <v>315</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2">
+        <v>16050</v>
+      </c>
+      <c r="C322" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D322" s="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>16100</v>
+      </c>
+      <c r="C323" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D323" s="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="2">
+        <v>16150</v>
+      </c>
+      <c r="C324" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D324" s="1">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="2">
+        <v>16200</v>
+      </c>
+      <c r="C325" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D325" s="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="2">
+        <v>16250</v>
+      </c>
+      <c r="C326" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D326" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="2">
+        <v>16300</v>
+      </c>
+      <c r="C327" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D327" s="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="2">
+        <v>16350</v>
+      </c>
+      <c r="C328" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D328" s="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="2">
+        <v>16400</v>
+      </c>
+      <c r="C329" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D329" s="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>16450</v>
+      </c>
+      <c r="C330" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D330" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="2">
+        <v>16500</v>
+      </c>
+      <c r="C331" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D331" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="2">
+        <v>16550</v>
+      </c>
+      <c r="C332" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D332" s="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="2">
+        <v>16600</v>
+      </c>
+      <c r="C333" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D333" s="1">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="2">
+        <v>16650</v>
+      </c>
+      <c r="C334" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D334" s="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="2">
+        <v>16700</v>
+      </c>
+      <c r="C335" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D335" s="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="2">
+        <v>16750</v>
+      </c>
+      <c r="C336" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D336" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>16800</v>
+      </c>
+      <c r="C337" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D337" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="2">
+        <v>16850</v>
+      </c>
+      <c r="C338" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D338" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="2">
+        <v>16900</v>
+      </c>
+      <c r="C339" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D339" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="2">
+        <v>16950</v>
+      </c>
+      <c r="C340" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D340" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="2">
+        <v>17000</v>
+      </c>
+      <c r="C341" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D341" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="2">
+        <v>17050</v>
+      </c>
+      <c r="C342" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D342" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="2">
+        <v>17100</v>
+      </c>
+      <c r="C343" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D343" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>17150</v>
+      </c>
+      <c r="C344" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D344" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="2">
+        <v>17200</v>
+      </c>
+      <c r="C345" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D345" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="2">
+        <v>17250</v>
+      </c>
+      <c r="C346" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D346" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="2">
+        <v>17300</v>
+      </c>
+      <c r="C347" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D347" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="2">
+        <v>17350</v>
+      </c>
+      <c r="C348" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D348" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="2">
+        <v>17400</v>
+      </c>
+      <c r="C349" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D349" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="2">
+        <v>17450</v>
+      </c>
+      <c r="C350" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D350" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>17500</v>
+      </c>
+      <c r="C351" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D351" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="2">
+        <v>17550</v>
+      </c>
+      <c r="C352" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D352" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="2">
+        <v>17600</v>
+      </c>
+      <c r="C353" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D353" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="2">
+        <v>17650</v>
+      </c>
+      <c r="C354" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D354" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="2">
+        <v>17700</v>
+      </c>
+      <c r="C355" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D355" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="2">
+        <v>17750</v>
+      </c>
+      <c r="C356" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D356" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="2">
+        <v>17800</v>
+      </c>
+      <c r="C357" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D357" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>17850</v>
+      </c>
+      <c r="C358" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D358" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="2">
+        <v>17900</v>
+      </c>
+      <c r="C359" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D359" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="2">
+        <v>17950</v>
+      </c>
+      <c r="C360" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D360" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="2">
+        <v>18000</v>
+      </c>
+      <c r="C361" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D361" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="2">
+        <v>18050</v>
+      </c>
+      <c r="C362" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D362" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="2">
+        <v>18100</v>
+      </c>
+      <c r="C363" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D363" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="2">
+        <v>18150</v>
+      </c>
+      <c r="C364" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D364" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>18200</v>
+      </c>
+      <c r="C365" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D365" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="2">
+        <v>18250</v>
+      </c>
+      <c r="C366" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D366" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="2">
+        <v>18300</v>
+      </c>
+      <c r="C367" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D367" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="2">
+        <v>18350</v>
+      </c>
+      <c r="C368" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="2">
+        <v>18400</v>
+      </c>
+      <c r="C369" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D369" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="2">
+        <v>18450</v>
+      </c>
+      <c r="C370" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D370" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18500</v>
+      </c>
+      <c r="C371" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D371" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="2">
+        <v>18550</v>
+      </c>
+      <c r="C372" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D372" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="2">
+        <v>18600</v>
+      </c>
+      <c r="C373" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D373" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="2">
+        <v>18650</v>
+      </c>
+      <c r="C374" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D374" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="2">
+        <v>18700</v>
+      </c>
+      <c r="C375" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D375" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="2">
+        <v>18750</v>
+      </c>
+      <c r="C376" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D376" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="2">
+        <v>18800</v>
+      </c>
+      <c r="C377" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D377" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="2">
+        <v>18850</v>
+      </c>
+      <c r="C378" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="D378" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="2">
+        <v>18900</v>
+      </c>
+      <c r="C379" s="1">
+        <f t="shared" ref="C379:C401" si="9">C378</f>
+        <v>-1</v>
+      </c>
+      <c r="D379" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="2">
+        <v>18950</v>
+      </c>
+      <c r="C380" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D380" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="2">
+        <v>19000</v>
+      </c>
+      <c r="C381" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D381" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="2">
+        <v>19050</v>
+      </c>
+      <c r="C382" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D382" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="2">
+        <v>19100</v>
+      </c>
+      <c r="C383" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D383" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="2">
+        <v>19150</v>
+      </c>
+      <c r="C384" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D384" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="2">
+        <v>19200</v>
+      </c>
+      <c r="C385" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D385" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="2">
+        <v>19250</v>
+      </c>
+      <c r="C386" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D386" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="2">
+        <v>19300</v>
+      </c>
+      <c r="C387" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D387" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="2">
+        <v>19350</v>
+      </c>
+      <c r="C388" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D388" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="2">
+        <v>19400</v>
+      </c>
+      <c r="C389" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D389" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>19450</v>
+      </c>
+      <c r="C390" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D390" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>19500</v>
+      </c>
+      <c r="C391" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D391" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>19550</v>
+      </c>
+      <c r="C392" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D392" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>19600</v>
+      </c>
+      <c r="C393" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D393" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>19650</v>
+      </c>
+      <c r="C394" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D394" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>19700</v>
+      </c>
+      <c r="C395" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D395" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>19750</v>
+      </c>
+      <c r="C396" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D396" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>19800</v>
+      </c>
+      <c r="C397" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D397" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>19850</v>
+      </c>
+      <c r="C398" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D398" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>19900</v>
+      </c>
+      <c r="C399" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D399" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>19950</v>
+      </c>
+      <c r="C400" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D400" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C401" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D401" s="1">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B38C34F-45EF-4571-87C1-114A979764CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595049B0-79E8-425C-A0DA-655DDB7B54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D401"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B397" sqref="B397"/>
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B497" sqref="B497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6126,7 +6126,7 @@
         <v>18900</v>
       </c>
       <c r="C379" s="1">
-        <f t="shared" ref="C379:C401" si="9">C378</f>
+        <f t="shared" ref="C379:C442" si="9">C378</f>
         <v>-1</v>
       </c>
       <c r="D379" s="1">
@@ -6461,6 +6461,1506 @@
       </c>
       <c r="D401" s="1">
         <v>395</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>20050</v>
+      </c>
+      <c r="C402" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D402" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>20100</v>
+      </c>
+      <c r="C403" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D403" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>20150</v>
+      </c>
+      <c r="C404" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D404" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20200</v>
+      </c>
+      <c r="C405" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D405" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>20250</v>
+      </c>
+      <c r="C406" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D406" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>20300</v>
+      </c>
+      <c r="C407" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D407" s="1">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>20350</v>
+      </c>
+      <c r="C408" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D408" s="1">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>20400</v>
+      </c>
+      <c r="C409" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D409" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>20450</v>
+      </c>
+      <c r="C410" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D410" s="1">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2">
+        <v>20500</v>
+      </c>
+      <c r="C411" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D411" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2">
+        <v>20550</v>
+      </c>
+      <c r="C412" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D412" s="1">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2">
+        <v>20600</v>
+      </c>
+      <c r="C413" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D413" s="1">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2">
+        <v>20650</v>
+      </c>
+      <c r="C414" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D414" s="1">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2">
+        <v>20700</v>
+      </c>
+      <c r="C415" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D415" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2">
+        <v>20750</v>
+      </c>
+      <c r="C416" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D416" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2">
+        <v>20800</v>
+      </c>
+      <c r="C417" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D417" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2">
+        <v>20850</v>
+      </c>
+      <c r="C418" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D418" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2">
+        <v>20900</v>
+      </c>
+      <c r="C419" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D419" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2">
+        <v>20950</v>
+      </c>
+      <c r="C420" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D420" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2">
+        <v>21000</v>
+      </c>
+      <c r="C421" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D421" s="1">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2">
+        <v>21050</v>
+      </c>
+      <c r="C422" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D422" s="1">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2">
+        <v>21100</v>
+      </c>
+      <c r="C423" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D423" s="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424" s="2">
+        <v>21150</v>
+      </c>
+      <c r="C424" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D424" s="1">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425" s="2">
+        <v>21200</v>
+      </c>
+      <c r="C425" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D425" s="1">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426" s="2">
+        <v>21250</v>
+      </c>
+      <c r="C426" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D426" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427" s="2">
+        <v>21300</v>
+      </c>
+      <c r="C427" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D427" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428" s="2">
+        <v>21350</v>
+      </c>
+      <c r="C428" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D428" s="1">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429" s="2">
+        <v>21400</v>
+      </c>
+      <c r="C429" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D429" s="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430" s="2">
+        <v>21450</v>
+      </c>
+      <c r="C430" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D430" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431" s="2">
+        <v>21500</v>
+      </c>
+      <c r="C431" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D431" s="1">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432" s="2">
+        <v>21550</v>
+      </c>
+      <c r="C432" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D432" s="1">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433" s="2">
+        <v>21600</v>
+      </c>
+      <c r="C433" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D433" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434" s="2">
+        <v>21650</v>
+      </c>
+      <c r="C434" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D434" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435" s="2">
+        <v>21700</v>
+      </c>
+      <c r="C435" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D435" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436" s="2">
+        <v>21750</v>
+      </c>
+      <c r="C436" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D436" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437" s="2">
+        <v>21800</v>
+      </c>
+      <c r="C437" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D437" s="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21850</v>
+      </c>
+      <c r="C438" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D438" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439" s="2">
+        <v>21900</v>
+      </c>
+      <c r="C439" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D439" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440" s="2">
+        <v>21950</v>
+      </c>
+      <c r="C440" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D440" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441" s="2">
+        <v>22000</v>
+      </c>
+      <c r="C441" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D441" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442" s="2">
+        <v>22050</v>
+      </c>
+      <c r="C442" s="1">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="D442" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443" s="2">
+        <v>22100</v>
+      </c>
+      <c r="C443" s="1">
+        <f t="shared" ref="C443:C501" si="10">C442</f>
+        <v>-1</v>
+      </c>
+      <c r="D443" s="1">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444" s="2">
+        <v>22150</v>
+      </c>
+      <c r="C444" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D444" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445" s="2">
+        <v>22200</v>
+      </c>
+      <c r="C445" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D445" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446" s="2">
+        <v>22250</v>
+      </c>
+      <c r="C446" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D446" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447" s="2">
+        <v>22300</v>
+      </c>
+      <c r="C447" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D447" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448" s="2">
+        <v>22350</v>
+      </c>
+      <c r="C448" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D448" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449" s="2">
+        <v>22400</v>
+      </c>
+      <c r="C449" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D449" s="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450" s="2">
+        <v>22450</v>
+      </c>
+      <c r="C450" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D450" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451" s="2">
+        <v>22500</v>
+      </c>
+      <c r="C451" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D451" s="1">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452" s="2">
+        <v>22550</v>
+      </c>
+      <c r="C452" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D452" s="1">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453" s="2">
+        <v>22600</v>
+      </c>
+      <c r="C453" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D453" s="1">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454" s="2">
+        <v>22650</v>
+      </c>
+      <c r="C454" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D454" s="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455" s="2">
+        <v>22700</v>
+      </c>
+      <c r="C455" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D455" s="1">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456" s="2">
+        <v>22750</v>
+      </c>
+      <c r="C456" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D456" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457" s="2">
+        <v>22800</v>
+      </c>
+      <c r="C457" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D457" s="1">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>456</v>
+      </c>
+      <c r="B458" s="2">
+        <v>22850</v>
+      </c>
+      <c r="C458" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D458" s="1">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>457</v>
+      </c>
+      <c r="B459" s="2">
+        <v>22900</v>
+      </c>
+      <c r="C459" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D459" s="1">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>458</v>
+      </c>
+      <c r="B460" s="2">
+        <v>22950</v>
+      </c>
+      <c r="C460" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D460" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>459</v>
+      </c>
+      <c r="B461" s="2">
+        <v>23000</v>
+      </c>
+      <c r="C461" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D461" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>460</v>
+      </c>
+      <c r="B462" s="2">
+        <v>23050</v>
+      </c>
+      <c r="C462" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D462" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>461</v>
+      </c>
+      <c r="B463" s="2">
+        <v>23100</v>
+      </c>
+      <c r="C463" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D463" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>462</v>
+      </c>
+      <c r="B464" s="2">
+        <v>23150</v>
+      </c>
+      <c r="C464" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D464" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>463</v>
+      </c>
+      <c r="B465" s="2">
+        <v>23200</v>
+      </c>
+      <c r="C465" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D465" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>464</v>
+      </c>
+      <c r="B466" s="2">
+        <v>23250</v>
+      </c>
+      <c r="C466" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D466" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>465</v>
+      </c>
+      <c r="B467" s="2">
+        <v>23300</v>
+      </c>
+      <c r="C467" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D467" s="1">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>466</v>
+      </c>
+      <c r="B468" s="2">
+        <v>23350</v>
+      </c>
+      <c r="C468" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D468" s="1">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>467</v>
+      </c>
+      <c r="B469" s="2">
+        <v>23400</v>
+      </c>
+      <c r="C469" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D469" s="1">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>468</v>
+      </c>
+      <c r="B470" s="2">
+        <v>23450</v>
+      </c>
+      <c r="C470" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D470" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>469</v>
+      </c>
+      <c r="B471" s="2">
+        <v>23500</v>
+      </c>
+      <c r="C471" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D471" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>470</v>
+      </c>
+      <c r="B472" s="2">
+        <v>23550</v>
+      </c>
+      <c r="C472" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D472" s="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>471</v>
+      </c>
+      <c r="B473" s="2">
+        <v>23600</v>
+      </c>
+      <c r="C473" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D473" s="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>472</v>
+      </c>
+      <c r="B474" s="2">
+        <v>23650</v>
+      </c>
+      <c r="C474" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D474" s="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>473</v>
+      </c>
+      <c r="B475" s="2">
+        <v>23700</v>
+      </c>
+      <c r="C475" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D475" s="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>474</v>
+      </c>
+      <c r="B476" s="2">
+        <v>23750</v>
+      </c>
+      <c r="C476" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D476" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>475</v>
+      </c>
+      <c r="B477" s="2">
+        <v>23800</v>
+      </c>
+      <c r="C477" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D477" s="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>476</v>
+      </c>
+      <c r="B478" s="2">
+        <v>23850</v>
+      </c>
+      <c r="C478" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D478" s="1">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>477</v>
+      </c>
+      <c r="B479" s="2">
+        <v>23900</v>
+      </c>
+      <c r="C479" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D479" s="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>478</v>
+      </c>
+      <c r="B480" s="2">
+        <v>23950</v>
+      </c>
+      <c r="C480" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D480" s="1">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>479</v>
+      </c>
+      <c r="B481" s="2">
+        <v>24000</v>
+      </c>
+      <c r="C481" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D481" s="1">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <v>24050</v>
+      </c>
+      <c r="C482" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D482" s="1">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>481</v>
+      </c>
+      <c r="B483" s="2">
+        <v>24100</v>
+      </c>
+      <c r="C483" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D483" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>24150</v>
+      </c>
+      <c r="C484" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D484" s="1">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>24200</v>
+      </c>
+      <c r="C485" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D485" s="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>24250</v>
+      </c>
+      <c r="C486" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D486" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>24300</v>
+      </c>
+      <c r="C487" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D487" s="1">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>24350</v>
+      </c>
+      <c r="C488" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D488" s="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>24400</v>
+      </c>
+      <c r="C489" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D489" s="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>24450</v>
+      </c>
+      <c r="C490" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D490" s="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>24500</v>
+      </c>
+      <c r="C491" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D491" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>24550</v>
+      </c>
+      <c r="C492" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D492" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>24600</v>
+      </c>
+      <c r="C493" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D493" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>24650</v>
+      </c>
+      <c r="C494" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D494" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>24700</v>
+      </c>
+      <c r="C495" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D495" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>24750</v>
+      </c>
+      <c r="C496" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D496" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>24800</v>
+      </c>
+      <c r="C497" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D497" s="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>24850</v>
+      </c>
+      <c r="C498" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D498" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>24900</v>
+      </c>
+      <c r="C499" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D499" s="1">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>24950</v>
+      </c>
+      <c r="C500" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D500" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C501" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D501" s="1">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595049B0-79E8-425C-A0DA-655DDB7B54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07A637-F1EF-4B35-A5E9-297369A7710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B497" sqref="B497"/>
+      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B598" sqref="B598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7086,7 +7086,7 @@
         <v>22100</v>
       </c>
       <c r="C443" s="1">
-        <f t="shared" ref="C443:C501" si="10">C442</f>
+        <f t="shared" ref="C443:C506" si="10">C442</f>
         <v>-1</v>
       </c>
       <c r="D443" s="1">
@@ -7961,6 +7961,1506 @@
       </c>
       <c r="D501" s="1">
         <v>495</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>25050</v>
+      </c>
+      <c r="C502" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D502" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>25100</v>
+      </c>
+      <c r="C503" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D503" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>25150</v>
+      </c>
+      <c r="C504" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D504" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>25200</v>
+      </c>
+      <c r="C505" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D505" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25250</v>
+      </c>
+      <c r="C506" s="1">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="D506" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>25300</v>
+      </c>
+      <c r="C507" s="1">
+        <f t="shared" ref="C507:C570" si="11">C506</f>
+        <v>-1</v>
+      </c>
+      <c r="D507" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>25350</v>
+      </c>
+      <c r="C508" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D508" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>25400</v>
+      </c>
+      <c r="C509" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D509" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>25450</v>
+      </c>
+      <c r="C510" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D510" s="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>25500</v>
+      </c>
+      <c r="C511" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D511" s="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>25550</v>
+      </c>
+      <c r="C512" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D512" s="1">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>25600</v>
+      </c>
+      <c r="C513" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D513" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>25650</v>
+      </c>
+      <c r="C514" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D514" s="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>25700</v>
+      </c>
+      <c r="C515" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D515" s="1">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>25750</v>
+      </c>
+      <c r="C516" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D516" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>25800</v>
+      </c>
+      <c r="C517" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D517" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>25850</v>
+      </c>
+      <c r="C518" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D518" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>25900</v>
+      </c>
+      <c r="C519" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D519" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>25950</v>
+      </c>
+      <c r="C520" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D520" s="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>26000</v>
+      </c>
+      <c r="C521" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D521" s="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>26050</v>
+      </c>
+      <c r="C522" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D522" s="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>26100</v>
+      </c>
+      <c r="C523" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D523" s="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>26150</v>
+      </c>
+      <c r="C524" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D524" s="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>26200</v>
+      </c>
+      <c r="C525" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D525" s="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>26250</v>
+      </c>
+      <c r="C526" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D526" s="1">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>26300</v>
+      </c>
+      <c r="C527" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D527" s="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>26350</v>
+      </c>
+      <c r="C528" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D528" s="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>26400</v>
+      </c>
+      <c r="C529" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D529" s="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>26450</v>
+      </c>
+      <c r="C530" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D530" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>26500</v>
+      </c>
+      <c r="C531" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D531" s="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>26550</v>
+      </c>
+      <c r="C532" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D532" s="1">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>26600</v>
+      </c>
+      <c r="C533" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D533" s="1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>26650</v>
+      </c>
+      <c r="C534" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D534" s="1">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>26700</v>
+      </c>
+      <c r="C535" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D535" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>26750</v>
+      </c>
+      <c r="C536" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D536" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>26800</v>
+      </c>
+      <c r="C537" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D537" s="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>26850</v>
+      </c>
+      <c r="C538" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D538" s="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>26900</v>
+      </c>
+      <c r="C539" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D539" s="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>26950</v>
+      </c>
+      <c r="C540" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D540" s="1">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>27000</v>
+      </c>
+      <c r="C541" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D541" s="1">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>27050</v>
+      </c>
+      <c r="C542" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D542" s="1">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>27100</v>
+      </c>
+      <c r="C543" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D543" s="1">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>27150</v>
+      </c>
+      <c r="C544" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D544" s="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>27200</v>
+      </c>
+      <c r="C545" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D545" s="1">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>27250</v>
+      </c>
+      <c r="C546" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D546" s="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>27300</v>
+      </c>
+      <c r="C547" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D547" s="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>27350</v>
+      </c>
+      <c r="C548" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D548" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>27400</v>
+      </c>
+      <c r="C549" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D549" s="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>27450</v>
+      </c>
+      <c r="C550" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D550" s="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>27500</v>
+      </c>
+      <c r="C551" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D551" s="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>27550</v>
+      </c>
+      <c r="C552" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D552" s="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>27600</v>
+      </c>
+      <c r="C553" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D553" s="1">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>27650</v>
+      </c>
+      <c r="C554" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D554" s="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>27700</v>
+      </c>
+      <c r="C555" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D555" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>27750</v>
+      </c>
+      <c r="C556" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D556" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>27800</v>
+      </c>
+      <c r="C557" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D557" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>27850</v>
+      </c>
+      <c r="C558" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D558" s="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>27900</v>
+      </c>
+      <c r="C559" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D559" s="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>27950</v>
+      </c>
+      <c r="C560" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D560" s="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>28000</v>
+      </c>
+      <c r="C561" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D561" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>28050</v>
+      </c>
+      <c r="C562" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D562" s="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>28100</v>
+      </c>
+      <c r="C563" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D563" s="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>28150</v>
+      </c>
+      <c r="C564" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D564" s="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>28200</v>
+      </c>
+      <c r="C565" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D565" s="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>28250</v>
+      </c>
+      <c r="C566" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D566" s="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>28300</v>
+      </c>
+      <c r="C567" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D567" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>28350</v>
+      </c>
+      <c r="C568" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D568" s="1">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>28400</v>
+      </c>
+      <c r="C569" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D569" s="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>28450</v>
+      </c>
+      <c r="C570" s="1">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="D570" s="1">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>28500</v>
+      </c>
+      <c r="C571" s="1">
+        <f t="shared" ref="C571:C601" si="12">C570</f>
+        <v>-1</v>
+      </c>
+      <c r="D571" s="1">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>28550</v>
+      </c>
+      <c r="C572" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D572" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>28600</v>
+      </c>
+      <c r="C573" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D573" s="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>28650</v>
+      </c>
+      <c r="C574" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D574" s="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>28700</v>
+      </c>
+      <c r="C575" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D575" s="1">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>28750</v>
+      </c>
+      <c r="C576" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D576" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>28800</v>
+      </c>
+      <c r="C577" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D577" s="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>28850</v>
+      </c>
+      <c r="C578" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D578" s="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>28900</v>
+      </c>
+      <c r="C579" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D579" s="1">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>28950</v>
+      </c>
+      <c r="C580" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D580" s="1">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>29000</v>
+      </c>
+      <c r="C581" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D581" s="1">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>29050</v>
+      </c>
+      <c r="C582" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D582" s="1">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>29100</v>
+      </c>
+      <c r="C583" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D583" s="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>29150</v>
+      </c>
+      <c r="C584" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D584" s="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>29200</v>
+      </c>
+      <c r="C585" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D585" s="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>29250</v>
+      </c>
+      <c r="C586" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D586" s="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>29300</v>
+      </c>
+      <c r="C587" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D587" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>29350</v>
+      </c>
+      <c r="C588" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D588" s="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>29400</v>
+      </c>
+      <c r="C589" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D589" s="1">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>29450</v>
+      </c>
+      <c r="C590" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D590" s="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>29500</v>
+      </c>
+      <c r="C591" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D591" s="1">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>29550</v>
+      </c>
+      <c r="C592" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D592" s="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>29600</v>
+      </c>
+      <c r="C593" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D593" s="1">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>29650</v>
+      </c>
+      <c r="C594" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D594" s="1">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>29700</v>
+      </c>
+      <c r="C595" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D595" s="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>29750</v>
+      </c>
+      <c r="C596" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D596" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>29800</v>
+      </c>
+      <c r="C597" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D597" s="1">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>29850</v>
+      </c>
+      <c r="C598" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D598" s="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>29900</v>
+      </c>
+      <c r="C599" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D599" s="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>29950</v>
+      </c>
+      <c r="C600" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D600" s="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C601" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D601" s="1">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE07A637-F1EF-4B35-A5E9-297369A7710D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F15B7-9382-41DE-91CB-20BECB78A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -140,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D601"/>
+  <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A589" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B598" sqref="B598"/>
+      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D959" sqref="D959"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9006,7 +9006,7 @@
         <v>28500</v>
       </c>
       <c r="C571" s="1">
-        <f t="shared" ref="C571:C601" si="12">C570</f>
+        <f t="shared" ref="C571:C634" si="12">C570</f>
         <v>-1</v>
       </c>
       <c r="D571" s="1">
@@ -9461,6 +9461,6006 @@
       </c>
       <c r="D601" s="1">
         <v>595</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>30050</v>
+      </c>
+      <c r="C602" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D602" s="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>30100</v>
+      </c>
+      <c r="C603" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D603" s="1">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>30150</v>
+      </c>
+      <c r="C604" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D604" s="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>30200</v>
+      </c>
+      <c r="C605" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D605" s="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>30250</v>
+      </c>
+      <c r="C606" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D606" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>30300</v>
+      </c>
+      <c r="C607" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D607" s="1">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>30350</v>
+      </c>
+      <c r="C608" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D608" s="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>30400</v>
+      </c>
+      <c r="C609" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D609" s="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>30450</v>
+      </c>
+      <c r="C610" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D610" s="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>30500</v>
+      </c>
+      <c r="C611" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D611" s="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>30550</v>
+      </c>
+      <c r="C612" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D612" s="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>30600</v>
+      </c>
+      <c r="C613" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D613" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>30650</v>
+      </c>
+      <c r="C614" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D614" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>30700</v>
+      </c>
+      <c r="C615" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D615" s="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>30750</v>
+      </c>
+      <c r="C616" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D616" s="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>30800</v>
+      </c>
+      <c r="C617" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D617" s="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>30850</v>
+      </c>
+      <c r="C618" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D618" s="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>30900</v>
+      </c>
+      <c r="C619" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D619" s="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>30950</v>
+      </c>
+      <c r="C620" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D620" s="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>31000</v>
+      </c>
+      <c r="C621" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D621" s="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>31050</v>
+      </c>
+      <c r="C622" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D622" s="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>31100</v>
+      </c>
+      <c r="C623" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D623" s="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>31150</v>
+      </c>
+      <c r="C624" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D624" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>31200</v>
+      </c>
+      <c r="C625" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D625" s="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>31250</v>
+      </c>
+      <c r="C626" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D626" s="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>31300</v>
+      </c>
+      <c r="C627" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D627" s="1">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>31350</v>
+      </c>
+      <c r="C628" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D628" s="1">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>31400</v>
+      </c>
+      <c r="C629" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D629" s="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>31450</v>
+      </c>
+      <c r="C630" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D630" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>31500</v>
+      </c>
+      <c r="C631" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D631" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>31550</v>
+      </c>
+      <c r="C632" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D632" s="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>31600</v>
+      </c>
+      <c r="C633" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D633" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>31650</v>
+      </c>
+      <c r="C634" s="1">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="D634" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>31700</v>
+      </c>
+      <c r="C635" s="1">
+        <f t="shared" ref="C635:C698" si="13">C634</f>
+        <v>-1</v>
+      </c>
+      <c r="D635" s="1">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>31750</v>
+      </c>
+      <c r="C636" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D636" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>31800</v>
+      </c>
+      <c r="C637" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D637" s="1">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>31850</v>
+      </c>
+      <c r="C638" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D638" s="1">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>31900</v>
+      </c>
+      <c r="C639" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D639" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>31950</v>
+      </c>
+      <c r="C640" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D640" s="1">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>32000</v>
+      </c>
+      <c r="C641" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D641" s="1">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2">
+        <v>32050</v>
+      </c>
+      <c r="C642" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D642" s="1">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2">
+        <v>32100</v>
+      </c>
+      <c r="C643" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D643" s="1">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2">
+        <v>32150</v>
+      </c>
+      <c r="C644" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D644" s="1">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2">
+        <v>32200</v>
+      </c>
+      <c r="C645" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D645" s="1">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2">
+        <v>32250</v>
+      </c>
+      <c r="C646" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D646" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2">
+        <v>32300</v>
+      </c>
+      <c r="C647" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D647" s="1">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2">
+        <v>32350</v>
+      </c>
+      <c r="C648" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D648" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2">
+        <v>32400</v>
+      </c>
+      <c r="C649" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D649" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2">
+        <v>32450</v>
+      </c>
+      <c r="C650" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D650" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2">
+        <v>32500</v>
+      </c>
+      <c r="C651" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D651" s="1">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2">
+        <v>32550</v>
+      </c>
+      <c r="C652" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D652" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2">
+        <v>32600</v>
+      </c>
+      <c r="C653" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D653" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2">
+        <v>32650</v>
+      </c>
+      <c r="C654" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D654" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2">
+        <v>32700</v>
+      </c>
+      <c r="C655" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D655" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2">
+        <v>32750</v>
+      </c>
+      <c r="C656" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D656" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2">
+        <v>32800</v>
+      </c>
+      <c r="C657" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D657" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2">
+        <v>32850</v>
+      </c>
+      <c r="C658" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D658" s="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2">
+        <v>32900</v>
+      </c>
+      <c r="C659" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D659" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2">
+        <v>32950</v>
+      </c>
+      <c r="C660" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D660" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2">
+        <v>33000</v>
+      </c>
+      <c r="C661" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D661" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2">
+        <v>33050</v>
+      </c>
+      <c r="C662" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D662" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2">
+        <v>33100</v>
+      </c>
+      <c r="C663" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D663" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2">
+        <v>33150</v>
+      </c>
+      <c r="C664" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D664" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2">
+        <v>33200</v>
+      </c>
+      <c r="C665" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D665" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2">
+        <v>33250</v>
+      </c>
+      <c r="C666" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D666" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2">
+        <v>33300</v>
+      </c>
+      <c r="C667" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D667" s="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2">
+        <v>33350</v>
+      </c>
+      <c r="C668" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D668" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2">
+        <v>33400</v>
+      </c>
+      <c r="C669" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D669" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2">
+        <v>33450</v>
+      </c>
+      <c r="C670" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D670" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2">
+        <v>33500</v>
+      </c>
+      <c r="C671" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D671" s="1">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2">
+        <v>33550</v>
+      </c>
+      <c r="C672" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D672" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2">
+        <v>33600</v>
+      </c>
+      <c r="C673" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D673" s="1">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2">
+        <v>33650</v>
+      </c>
+      <c r="C674" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D674" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2">
+        <v>33700</v>
+      </c>
+      <c r="C675" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D675" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2">
+        <v>33750</v>
+      </c>
+      <c r="C676" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D676" s="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2">
+        <v>33800</v>
+      </c>
+      <c r="C677" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D677" s="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2">
+        <v>33850</v>
+      </c>
+      <c r="C678" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D678" s="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2">
+        <v>33900</v>
+      </c>
+      <c r="C679" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D679" s="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2">
+        <v>33950</v>
+      </c>
+      <c r="C680" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D680" s="1">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2">
+        <v>34000</v>
+      </c>
+      <c r="C681" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D681" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2">
+        <v>34050</v>
+      </c>
+      <c r="C682" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D682" s="1">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2">
+        <v>34100</v>
+      </c>
+      <c r="C683" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D683" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2">
+        <v>34150</v>
+      </c>
+      <c r="C684" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D684" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2">
+        <v>34200</v>
+      </c>
+      <c r="C685" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D685" s="1">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2">
+        <v>34250</v>
+      </c>
+      <c r="C686" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D686" s="1">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2">
+        <v>34300</v>
+      </c>
+      <c r="C687" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D687" s="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2">
+        <v>34350</v>
+      </c>
+      <c r="C688" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D688" s="1">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2">
+        <v>34400</v>
+      </c>
+      <c r="C689" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D689" s="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2">
+        <v>34450</v>
+      </c>
+      <c r="C690" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D690" s="1">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2">
+        <v>34500</v>
+      </c>
+      <c r="C691" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D691" s="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2">
+        <v>34550</v>
+      </c>
+      <c r="C692" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D692" s="1">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2">
+        <v>34600</v>
+      </c>
+      <c r="C693" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D693" s="1">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2">
+        <v>34650</v>
+      </c>
+      <c r="C694" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D694" s="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2">
+        <v>34700</v>
+      </c>
+      <c r="C695" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D695" s="1">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2">
+        <v>34750</v>
+      </c>
+      <c r="C696" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D696" s="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2">
+        <v>34800</v>
+      </c>
+      <c r="C697" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D697" s="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2">
+        <v>34850</v>
+      </c>
+      <c r="C698" s="1">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="D698" s="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2">
+        <v>34900</v>
+      </c>
+      <c r="C699" s="1">
+        <f t="shared" ref="C699:C762" si="14">C698</f>
+        <v>-1</v>
+      </c>
+      <c r="D699" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2">
+        <v>34950</v>
+      </c>
+      <c r="C700" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D700" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2">
+        <v>35000</v>
+      </c>
+      <c r="C701" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D701" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2">
+        <v>35050</v>
+      </c>
+      <c r="C702" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D702" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <v>35100</v>
+      </c>
+      <c r="C703" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D703" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <v>35150</v>
+      </c>
+      <c r="C704" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D704" s="1">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <v>35200</v>
+      </c>
+      <c r="C705" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D705" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <v>35250</v>
+      </c>
+      <c r="C706" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D706" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <v>35300</v>
+      </c>
+      <c r="C707" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D707" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <v>35350</v>
+      </c>
+      <c r="C708" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D708" s="1">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <v>35400</v>
+      </c>
+      <c r="C709" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D709" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <v>35450</v>
+      </c>
+      <c r="C710" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D710" s="1">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <v>35500</v>
+      </c>
+      <c r="C711" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D711" s="1">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <v>35550</v>
+      </c>
+      <c r="C712" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D712" s="1">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2">
+        <v>35600</v>
+      </c>
+      <c r="C713" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D713" s="1">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2">
+        <v>35650</v>
+      </c>
+      <c r="C714" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D714" s="1">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2">
+        <v>35700</v>
+      </c>
+      <c r="C715" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D715" s="1">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2">
+        <v>35750</v>
+      </c>
+      <c r="C716" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D716" s="1">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2">
+        <v>35800</v>
+      </c>
+      <c r="C717" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D717" s="1">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2">
+        <v>35850</v>
+      </c>
+      <c r="C718" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D718" s="1">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2">
+        <v>35900</v>
+      </c>
+      <c r="C719" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D719" s="1">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2">
+        <v>35950</v>
+      </c>
+      <c r="C720" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D720" s="1">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2">
+        <v>36000</v>
+      </c>
+      <c r="C721" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D721" s="1">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2">
+        <v>36050</v>
+      </c>
+      <c r="C722" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D722" s="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2">
+        <v>36100</v>
+      </c>
+      <c r="C723" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D723" s="1">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2">
+        <v>36150</v>
+      </c>
+      <c r="C724" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D724" s="1">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2">
+        <v>36200</v>
+      </c>
+      <c r="C725" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D725" s="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2">
+        <v>36250</v>
+      </c>
+      <c r="C726" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D726" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2">
+        <v>36300</v>
+      </c>
+      <c r="C727" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D727" s="1">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2">
+        <v>36350</v>
+      </c>
+      <c r="C728" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D728" s="1">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2">
+        <v>36400</v>
+      </c>
+      <c r="C729" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D729" s="1">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2">
+        <v>36450</v>
+      </c>
+      <c r="C730" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D730" s="1">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2">
+        <v>36500</v>
+      </c>
+      <c r="C731" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D731" s="1">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2">
+        <v>36550</v>
+      </c>
+      <c r="C732" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D732" s="1">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2">
+        <v>36600</v>
+      </c>
+      <c r="C733" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D733" s="1">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2">
+        <v>36650</v>
+      </c>
+      <c r="C734" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D734" s="1">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2">
+        <v>36700</v>
+      </c>
+      <c r="C735" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D735" s="1">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2">
+        <v>36750</v>
+      </c>
+      <c r="C736" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D736" s="1">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2">
+        <v>36800</v>
+      </c>
+      <c r="C737" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D737" s="1">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2">
+        <v>36850</v>
+      </c>
+      <c r="C738" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D738" s="1">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2">
+        <v>36900</v>
+      </c>
+      <c r="C739" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D739" s="1">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2">
+        <v>36950</v>
+      </c>
+      <c r="C740" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D740" s="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2">
+        <v>37000</v>
+      </c>
+      <c r="C741" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D741" s="1">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2">
+        <v>37050</v>
+      </c>
+      <c r="C742" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D742" s="1">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2">
+        <v>37100</v>
+      </c>
+      <c r="C743" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D743" s="1">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2">
+        <v>37150</v>
+      </c>
+      <c r="C744" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D744" s="1">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2">
+        <v>37200</v>
+      </c>
+      <c r="C745" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D745" s="1">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2">
+        <v>37250</v>
+      </c>
+      <c r="C746" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D746" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2">
+        <v>37300</v>
+      </c>
+      <c r="C747" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D747" s="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2">
+        <v>37350</v>
+      </c>
+      <c r="C748" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D748" s="1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2">
+        <v>37400</v>
+      </c>
+      <c r="C749" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D749" s="1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2">
+        <v>37450</v>
+      </c>
+      <c r="C750" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D750" s="1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2">
+        <v>37500</v>
+      </c>
+      <c r="C751" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D751" s="1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2">
+        <v>37550</v>
+      </c>
+      <c r="C752" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D752" s="1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2">
+        <v>37600</v>
+      </c>
+      <c r="C753" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D753" s="1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2">
+        <v>37650</v>
+      </c>
+      <c r="C754" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D754" s="1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2">
+        <v>37700</v>
+      </c>
+      <c r="C755" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D755" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2">
+        <v>37750</v>
+      </c>
+      <c r="C756" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D756" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2">
+        <v>37800</v>
+      </c>
+      <c r="C757" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D757" s="1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2">
+        <v>37850</v>
+      </c>
+      <c r="C758" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D758" s="1">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2">
+        <v>37900</v>
+      </c>
+      <c r="C759" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D759" s="1">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2">
+        <v>37950</v>
+      </c>
+      <c r="C760" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D760" s="1">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2">
+        <v>38000</v>
+      </c>
+      <c r="C761" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D761" s="1">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2">
+        <v>38050</v>
+      </c>
+      <c r="C762" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="D762" s="1">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2">
+        <v>38100</v>
+      </c>
+      <c r="C763" s="1">
+        <f t="shared" ref="C763:C826" si="15">C762</f>
+        <v>-1</v>
+      </c>
+      <c r="D763" s="1">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2">
+        <v>38150</v>
+      </c>
+      <c r="C764" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D764" s="1">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2">
+        <v>38200</v>
+      </c>
+      <c r="C765" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D765" s="1">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2">
+        <v>38250</v>
+      </c>
+      <c r="C766" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D766" s="1">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2">
+        <v>38300</v>
+      </c>
+      <c r="C767" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D767" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2">
+        <v>38350</v>
+      </c>
+      <c r="C768" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D768" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2">
+        <v>38400</v>
+      </c>
+      <c r="C769" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D769" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2">
+        <v>38450</v>
+      </c>
+      <c r="C770" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D770" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2">
+        <v>38500</v>
+      </c>
+      <c r="C771" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D771" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2">
+        <v>38550</v>
+      </c>
+      <c r="C772" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D772" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2">
+        <v>38600</v>
+      </c>
+      <c r="C773" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D773" s="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2">
+        <v>38650</v>
+      </c>
+      <c r="C774" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D774" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2">
+        <v>38700</v>
+      </c>
+      <c r="C775" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D775" s="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2">
+        <v>38750</v>
+      </c>
+      <c r="C776" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D776" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2">
+        <v>38800</v>
+      </c>
+      <c r="C777" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D777" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2">
+        <v>38850</v>
+      </c>
+      <c r="C778" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D778" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2">
+        <v>38900</v>
+      </c>
+      <c r="C779" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D779" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2">
+        <v>38950</v>
+      </c>
+      <c r="C780" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D780" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2">
+        <v>39000</v>
+      </c>
+      <c r="C781" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D781" s="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2">
+        <v>39050</v>
+      </c>
+      <c r="C782" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D782" s="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2">
+        <v>39100</v>
+      </c>
+      <c r="C783" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D783" s="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2">
+        <v>39150</v>
+      </c>
+      <c r="C784" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D784" s="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2">
+        <v>39200</v>
+      </c>
+      <c r="C785" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D785" s="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2">
+        <v>39250</v>
+      </c>
+      <c r="C786" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D786" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2">
+        <v>39300</v>
+      </c>
+      <c r="C787" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D787" s="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2">
+        <v>39350</v>
+      </c>
+      <c r="C788" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D788" s="1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2">
+        <v>39400</v>
+      </c>
+      <c r="C789" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D789" s="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2">
+        <v>39450</v>
+      </c>
+      <c r="C790" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D790" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2">
+        <v>39500</v>
+      </c>
+      <c r="C791" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D791" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2">
+        <v>39550</v>
+      </c>
+      <c r="C792" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D792" s="1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2">
+        <v>39600</v>
+      </c>
+      <c r="C793" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D793" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2">
+        <v>39650</v>
+      </c>
+      <c r="C794" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D794" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2">
+        <v>39700</v>
+      </c>
+      <c r="C795" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D795" s="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2">
+        <v>39750</v>
+      </c>
+      <c r="C796" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D796" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2">
+        <v>39800</v>
+      </c>
+      <c r="C797" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D797" s="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2">
+        <v>39850</v>
+      </c>
+      <c r="C798" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D798" s="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2">
+        <v>39900</v>
+      </c>
+      <c r="C799" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D799" s="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2">
+        <v>39950</v>
+      </c>
+      <c r="C800" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D800" s="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2">
+        <v>40000</v>
+      </c>
+      <c r="C801" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D801" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2">
+        <v>40050</v>
+      </c>
+      <c r="C802" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D802" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2">
+        <v>40100</v>
+      </c>
+      <c r="C803" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D803" s="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2">
+        <v>40150</v>
+      </c>
+      <c r="C804" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D804" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2">
+        <v>40200</v>
+      </c>
+      <c r="C805" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D805" s="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2">
+        <v>40250</v>
+      </c>
+      <c r="C806" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D806" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2">
+        <v>40300</v>
+      </c>
+      <c r="C807" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D807" s="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2">
+        <v>40350</v>
+      </c>
+      <c r="C808" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D808" s="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2">
+        <v>40400</v>
+      </c>
+      <c r="C809" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D809" s="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2">
+        <v>40450</v>
+      </c>
+      <c r="C810" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D810" s="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2">
+        <v>40500</v>
+      </c>
+      <c r="C811" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D811" s="1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2">
+        <v>40550</v>
+      </c>
+      <c r="C812" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D812" s="1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2">
+        <v>40600</v>
+      </c>
+      <c r="C813" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D813" s="1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2">
+        <v>40650</v>
+      </c>
+      <c r="C814" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D814" s="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2">
+        <v>40700</v>
+      </c>
+      <c r="C815" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D815" s="1">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2">
+        <v>40750</v>
+      </c>
+      <c r="C816" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D816" s="1">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2">
+        <v>40800</v>
+      </c>
+      <c r="C817" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D817" s="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2">
+        <v>40850</v>
+      </c>
+      <c r="C818" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D818" s="1">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2">
+        <v>40900</v>
+      </c>
+      <c r="C819" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D819" s="1">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2">
+        <v>40950</v>
+      </c>
+      <c r="C820" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D820" s="1">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C821" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D821" s="1">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2">
+        <v>41050</v>
+      </c>
+      <c r="C822" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D822" s="1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2">
+        <v>41100</v>
+      </c>
+      <c r="C823" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D823" s="1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2">
+        <v>41150</v>
+      </c>
+      <c r="C824" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D824" s="1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2">
+        <v>41200</v>
+      </c>
+      <c r="C825" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D825" s="1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2">
+        <v>41250</v>
+      </c>
+      <c r="C826" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="D826" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2">
+        <v>41300</v>
+      </c>
+      <c r="C827" s="1">
+        <f t="shared" ref="C827:C890" si="16">C826</f>
+        <v>-1</v>
+      </c>
+      <c r="D827" s="1">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2">
+        <v>41350</v>
+      </c>
+      <c r="C828" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D828" s="1">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2">
+        <v>41400</v>
+      </c>
+      <c r="C829" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D829" s="1">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2">
+        <v>41450</v>
+      </c>
+      <c r="C830" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D830" s="1">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2">
+        <v>41500</v>
+      </c>
+      <c r="C831" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D831" s="1">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2">
+        <v>41550</v>
+      </c>
+      <c r="C832" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D832" s="1">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2">
+        <v>41600</v>
+      </c>
+      <c r="C833" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D833" s="1">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2">
+        <v>41650</v>
+      </c>
+      <c r="C834" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D834" s="1">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2">
+        <v>41700</v>
+      </c>
+      <c r="C835" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D835" s="1">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2">
+        <v>41750</v>
+      </c>
+      <c r="C836" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D836" s="1">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2">
+        <v>41800</v>
+      </c>
+      <c r="C837" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D837" s="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2">
+        <v>41850</v>
+      </c>
+      <c r="C838" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D838" s="1">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2">
+        <v>41900</v>
+      </c>
+      <c r="C839" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D839" s="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2">
+        <v>41950</v>
+      </c>
+      <c r="C840" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D840" s="1">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2">
+        <v>42000</v>
+      </c>
+      <c r="C841" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D841" s="1">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2">
+        <v>42050</v>
+      </c>
+      <c r="C842" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D842" s="1">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2">
+        <v>42100</v>
+      </c>
+      <c r="C843" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D843" s="1">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2">
+        <v>42150</v>
+      </c>
+      <c r="C844" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D844" s="1">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2">
+        <v>42200</v>
+      </c>
+      <c r="C845" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D845" s="1">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2">
+        <v>42250</v>
+      </c>
+      <c r="C846" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D846" s="1">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2">
+        <v>42300</v>
+      </c>
+      <c r="C847" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D847" s="1">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2">
+        <v>42350</v>
+      </c>
+      <c r="C848" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D848" s="1">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2">
+        <v>42400</v>
+      </c>
+      <c r="C849" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D849" s="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2">
+        <v>42450</v>
+      </c>
+      <c r="C850" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D850" s="1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C851" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D851" s="1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2">
+        <v>42550</v>
+      </c>
+      <c r="C852" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D852" s="1">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2">
+        <v>42600</v>
+      </c>
+      <c r="C853" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D853" s="1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2">
+        <v>42650</v>
+      </c>
+      <c r="C854" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D854" s="1">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2">
+        <v>42700</v>
+      </c>
+      <c r="C855" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D855" s="1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2">
+        <v>42750</v>
+      </c>
+      <c r="C856" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D856" s="1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2">
+        <v>42800</v>
+      </c>
+      <c r="C857" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D857" s="1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2">
+        <v>42850</v>
+      </c>
+      <c r="C858" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D858" s="1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2">
+        <v>42900</v>
+      </c>
+      <c r="C859" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D859" s="1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2">
+        <v>42950</v>
+      </c>
+      <c r="C860" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D860" s="1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2">
+        <v>43000</v>
+      </c>
+      <c r="C861" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D861" s="1">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2">
+        <v>43050</v>
+      </c>
+      <c r="C862" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D862" s="1">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2">
+        <v>43100</v>
+      </c>
+      <c r="C863" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D863" s="1">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2">
+        <v>43150</v>
+      </c>
+      <c r="C864" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D864" s="1">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2">
+        <v>43200</v>
+      </c>
+      <c r="C865" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D865" s="1">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2">
+        <v>43250</v>
+      </c>
+      <c r="C866" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D866" s="1">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2">
+        <v>43300</v>
+      </c>
+      <c r="C867" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D867" s="1">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2">
+        <v>43350</v>
+      </c>
+      <c r="C868" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D868" s="1">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2">
+        <v>43400</v>
+      </c>
+      <c r="C869" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D869" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2">
+        <v>43450</v>
+      </c>
+      <c r="C870" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D870" s="1">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2">
+        <v>43500</v>
+      </c>
+      <c r="C871" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D871" s="1">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C872" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D872" s="1">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2">
+        <v>43600</v>
+      </c>
+      <c r="C873" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D873" s="1">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2">
+        <v>43650</v>
+      </c>
+      <c r="C874" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D874" s="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2">
+        <v>43700</v>
+      </c>
+      <c r="C875" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D875" s="1">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2">
+        <v>43750</v>
+      </c>
+      <c r="C876" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D876" s="1">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C877" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D877" s="1">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2">
+        <v>43850</v>
+      </c>
+      <c r="C878" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D878" s="1">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2">
+        <v>43900</v>
+      </c>
+      <c r="C879" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D879" s="1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C880" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D880" s="1">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C881" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D881" s="1">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2">
+        <v>44050</v>
+      </c>
+      <c r="C882" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D882" s="1">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C883" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D883" s="1">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2">
+        <v>44150</v>
+      </c>
+      <c r="C884" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D884" s="1">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2">
+        <v>44200</v>
+      </c>
+      <c r="C885" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D885" s="1">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2">
+        <v>44250</v>
+      </c>
+      <c r="C886" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D886" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2">
+        <v>44300</v>
+      </c>
+      <c r="C887" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D887" s="1">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2">
+        <v>44350</v>
+      </c>
+      <c r="C888" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D888" s="1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C889" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D889" s="1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2">
+        <v>44450</v>
+      </c>
+      <c r="C890" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="D890" s="1">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C891" s="1">
+        <f t="shared" ref="C891:C954" si="17">C890</f>
+        <v>-1</v>
+      </c>
+      <c r="D891" s="1">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2">
+        <v>44550</v>
+      </c>
+      <c r="C892" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D892" s="1">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2">
+        <v>44600</v>
+      </c>
+      <c r="C893" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D893" s="1">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C894" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D894" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2">
+        <v>44700</v>
+      </c>
+      <c r="C895" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D895" s="1">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2">
+        <v>44750</v>
+      </c>
+      <c r="C896" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D896" s="1">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2">
+        <v>44800</v>
+      </c>
+      <c r="C897" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D897" s="1">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2">
+        <v>44850</v>
+      </c>
+      <c r="C898" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D898" s="1">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2">
+        <v>44900</v>
+      </c>
+      <c r="C899" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D899" s="1">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2">
+        <v>44950</v>
+      </c>
+      <c r="C900" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D900" s="1">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2">
+        <v>45000</v>
+      </c>
+      <c r="C901" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D901" s="1">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2">
+        <v>45050</v>
+      </c>
+      <c r="C902" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D902" s="1">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2">
+        <v>45100</v>
+      </c>
+      <c r="C903" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D903" s="1">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C904" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D904" s="1">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C905" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D905" s="1">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2">
+        <v>45250</v>
+      </c>
+      <c r="C906" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D906" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C907" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D907" s="1">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C908" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D908" s="1">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2">
+        <v>45400</v>
+      </c>
+      <c r="C909" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D909" s="1">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2">
+        <v>45450</v>
+      </c>
+      <c r="C910" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D910" s="1">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2">
+        <v>45500</v>
+      </c>
+      <c r="C911" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D911" s="1">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2">
+        <v>45550</v>
+      </c>
+      <c r="C912" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D912" s="1">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2">
+        <v>45600</v>
+      </c>
+      <c r="C913" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D913" s="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2">
+        <v>45650</v>
+      </c>
+      <c r="C914" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D914" s="1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C915" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D915" s="1">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2">
+        <v>45750</v>
+      </c>
+      <c r="C916" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D916" s="1">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2">
+        <v>45800</v>
+      </c>
+      <c r="C917" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D917" s="1">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2">
+        <v>45850</v>
+      </c>
+      <c r="C918" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D918" s="1">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C919" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D919" s="1">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2">
+        <v>45950</v>
+      </c>
+      <c r="C920" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D920" s="1">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2">
+        <v>46000</v>
+      </c>
+      <c r="C921" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D921" s="1">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2">
+        <v>46050</v>
+      </c>
+      <c r="C922" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D922" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2">
+        <v>46100</v>
+      </c>
+      <c r="C923" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D923" s="1">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2">
+        <v>46150</v>
+      </c>
+      <c r="C924" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D924" s="1">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2">
+        <v>46200</v>
+      </c>
+      <c r="C925" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D925" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2">
+        <v>46250</v>
+      </c>
+      <c r="C926" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D926" s="1">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2">
+        <v>46300</v>
+      </c>
+      <c r="C927" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D927" s="1">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2">
+        <v>46350</v>
+      </c>
+      <c r="C928" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D928" s="1">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2">
+        <v>46400</v>
+      </c>
+      <c r="C929" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D929" s="1">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2">
+        <v>46450</v>
+      </c>
+      <c r="C930" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D930" s="1">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2">
+        <v>46500</v>
+      </c>
+      <c r="C931" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D931" s="1">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2">
+        <v>46550</v>
+      </c>
+      <c r="C932" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D932" s="1">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2">
+        <v>46600</v>
+      </c>
+      <c r="C933" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D933" s="1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2">
+        <v>46650</v>
+      </c>
+      <c r="C934" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D934" s="1">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2">
+        <v>46700</v>
+      </c>
+      <c r="C935" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D935" s="1">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2">
+        <v>46750</v>
+      </c>
+      <c r="C936" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D936" s="1">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2">
+        <v>46800</v>
+      </c>
+      <c r="C937" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D937" s="1">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2">
+        <v>46850</v>
+      </c>
+      <c r="C938" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D938" s="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2">
+        <v>46900</v>
+      </c>
+      <c r="C939" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D939" s="1">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2">
+        <v>46950</v>
+      </c>
+      <c r="C940" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D940" s="1">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2">
+        <v>47000</v>
+      </c>
+      <c r="C941" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D941" s="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2">
+        <v>47050</v>
+      </c>
+      <c r="C942" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D942" s="1">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2">
+        <v>47100</v>
+      </c>
+      <c r="C943" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D943" s="1">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2">
+        <v>47150</v>
+      </c>
+      <c r="C944" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D944" s="1">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2">
+        <v>47200</v>
+      </c>
+      <c r="C945" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D945" s="1">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2">
+        <v>47250</v>
+      </c>
+      <c r="C946" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D946" s="1">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2">
+        <v>47300</v>
+      </c>
+      <c r="C947" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D947" s="1">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2">
+        <v>47350</v>
+      </c>
+      <c r="C948" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D948" s="1">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2">
+        <v>47400</v>
+      </c>
+      <c r="C949" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D949" s="1">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2">
+        <v>47450</v>
+      </c>
+      <c r="C950" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D950" s="1">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2">
+        <v>47500</v>
+      </c>
+      <c r="C951" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D951" s="1">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2">
+        <v>47550</v>
+      </c>
+      <c r="C952" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D952" s="1">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2">
+        <v>47600</v>
+      </c>
+      <c r="C953" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D953" s="1">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2">
+        <v>47650</v>
+      </c>
+      <c r="C954" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="D954" s="1">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2">
+        <v>47700</v>
+      </c>
+      <c r="C955" s="1">
+        <f t="shared" ref="C955:C1001" si="18">C954</f>
+        <v>-1</v>
+      </c>
+      <c r="D955" s="1">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2">
+        <v>47750</v>
+      </c>
+      <c r="C956" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D956" s="1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2">
+        <v>47800</v>
+      </c>
+      <c r="C957" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D957" s="1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2">
+        <v>47850</v>
+      </c>
+      <c r="C958" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D958" s="1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2">
+        <v>47900</v>
+      </c>
+      <c r="C959" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D959" s="1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2">
+        <v>47950</v>
+      </c>
+      <c r="C960" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D960" s="1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2">
+        <v>48000</v>
+      </c>
+      <c r="C961" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D961" s="1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2">
+        <v>48050</v>
+      </c>
+      <c r="C962" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D962" s="1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2">
+        <v>48100</v>
+      </c>
+      <c r="C963" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D963" s="1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2">
+        <v>48150</v>
+      </c>
+      <c r="C964" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D964" s="1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2">
+        <v>48200</v>
+      </c>
+      <c r="C965" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D965" s="1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2">
+        <v>48250</v>
+      </c>
+      <c r="C966" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D966" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2">
+        <v>48300</v>
+      </c>
+      <c r="C967" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D967" s="1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2">
+        <v>48350</v>
+      </c>
+      <c r="C968" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D968" s="1">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2">
+        <v>48400</v>
+      </c>
+      <c r="C969" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D969" s="1">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2">
+        <v>48450</v>
+      </c>
+      <c r="C970" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D970" s="1">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2">
+        <v>48500</v>
+      </c>
+      <c r="C971" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D971" s="1">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2">
+        <v>48550</v>
+      </c>
+      <c r="C972" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D972" s="1">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2">
+        <v>48600</v>
+      </c>
+      <c r="C973" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D973" s="1">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2">
+        <v>48650</v>
+      </c>
+      <c r="C974" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D974" s="1">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2">
+        <v>48700</v>
+      </c>
+      <c r="C975" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D975" s="1">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2">
+        <v>48750</v>
+      </c>
+      <c r="C976" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D976" s="1">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2">
+        <v>48800</v>
+      </c>
+      <c r="C977" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D977" s="1">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2">
+        <v>48850</v>
+      </c>
+      <c r="C978" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D978" s="1">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2">
+        <v>48900</v>
+      </c>
+      <c r="C979" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D979" s="1">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2">
+        <v>48950</v>
+      </c>
+      <c r="C980" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D980" s="1">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2">
+        <v>49000</v>
+      </c>
+      <c r="C981" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D981" s="1">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2">
+        <v>49050</v>
+      </c>
+      <c r="C982" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D982" s="1">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2">
+        <v>49100</v>
+      </c>
+      <c r="C983" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D983" s="1">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2">
+        <v>49150</v>
+      </c>
+      <c r="C984" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D984" s="1">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2">
+        <v>49200</v>
+      </c>
+      <c r="C985" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D985" s="1">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2">
+        <v>49250</v>
+      </c>
+      <c r="C986" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D986" s="1">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2">
+        <v>49300</v>
+      </c>
+      <c r="C987" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D987" s="1">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2">
+        <v>49350</v>
+      </c>
+      <c r="C988" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D988" s="1">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2">
+        <v>49400</v>
+      </c>
+      <c r="C989" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D989" s="1">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2">
+        <v>49450</v>
+      </c>
+      <c r="C990" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D990" s="1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2">
+        <v>49500</v>
+      </c>
+      <c r="C991" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D991" s="1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2">
+        <v>49550</v>
+      </c>
+      <c r="C992" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D992" s="1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2">
+        <v>49600</v>
+      </c>
+      <c r="C993" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D993" s="1">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2">
+        <v>49650</v>
+      </c>
+      <c r="C994" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D994" s="1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2">
+        <v>49700</v>
+      </c>
+      <c r="C995" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D995" s="1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2">
+        <v>49750</v>
+      </c>
+      <c r="C996" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D996" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2">
+        <v>49800</v>
+      </c>
+      <c r="C997" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D997" s="1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2">
+        <v>49850</v>
+      </c>
+      <c r="C998" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D998" s="1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2">
+        <v>49900</v>
+      </c>
+      <c r="C999" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D999" s="1">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2">
+        <v>49950</v>
+      </c>
+      <c r="C1000" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1000" s="1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C1001" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1001" s="1">
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F15B7-9382-41DE-91CB-20BECB78A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5FB82-6F7D-4C20-801D-3E49D97F7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D1001"/>
+  <dimension ref="A1:D1401"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A946" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D959" sqref="D959"/>
+      <pane ySplit="1" topLeftCell="A1392" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1400" sqref="B1400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14766,7 +14766,7 @@
         <v>47700</v>
       </c>
       <c r="C955" s="1">
-        <f t="shared" ref="C955:C1001" si="18">C954</f>
+        <f t="shared" ref="C955:C1018" si="18">C954</f>
         <v>-1</v>
       </c>
       <c r="D955" s="1">
@@ -15461,6 +15461,6006 @@
       </c>
       <c r="D1001" s="1">
         <v>995</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2">
+        <v>50050</v>
+      </c>
+      <c r="C1002" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1002" s="1">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1003">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2">
+        <v>50100</v>
+      </c>
+      <c r="C1003" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1003" s="1">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1004">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2">
+        <v>50150</v>
+      </c>
+      <c r="C1004" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1004" s="1">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1005">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2">
+        <v>50200</v>
+      </c>
+      <c r="C1005" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1005" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1006">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2">
+        <v>50250</v>
+      </c>
+      <c r="C1006" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1006" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1007">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2">
+        <v>50300</v>
+      </c>
+      <c r="C1007" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1007" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1008">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2">
+        <v>50350</v>
+      </c>
+      <c r="C1008" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1008" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1009">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2">
+        <v>50400</v>
+      </c>
+      <c r="C1009" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1009" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1010">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2">
+        <v>50450</v>
+      </c>
+      <c r="C1010" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1010" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1011">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2">
+        <v>50500</v>
+      </c>
+      <c r="C1011" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1011" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1012">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2">
+        <v>50550</v>
+      </c>
+      <c r="C1012" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1012" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1013">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2">
+        <v>50600</v>
+      </c>
+      <c r="C1013" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1013" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1014">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2">
+        <v>50650</v>
+      </c>
+      <c r="C1014" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1014" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1015">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2">
+        <v>50700</v>
+      </c>
+      <c r="C1015" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1015" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1016">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2">
+        <v>50750</v>
+      </c>
+      <c r="C1016" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1016" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1017">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2">
+        <v>50800</v>
+      </c>
+      <c r="C1017" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1017" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1018">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2">
+        <v>50850</v>
+      </c>
+      <c r="C1018" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="D1018" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1019">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2">
+        <v>50900</v>
+      </c>
+      <c r="C1019" s="1">
+        <f t="shared" ref="C1019:C1082" si="19">C1018</f>
+        <v>-1</v>
+      </c>
+      <c r="D1019" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1020">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2">
+        <v>50950</v>
+      </c>
+      <c r="C1020" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1020" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1021">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2">
+        <v>51000</v>
+      </c>
+      <c r="C1021" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1021" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1022">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2">
+        <v>51050</v>
+      </c>
+      <c r="C1022" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1022" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1023">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2">
+        <v>51100</v>
+      </c>
+      <c r="C1023" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1023" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1024">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2">
+        <v>51150</v>
+      </c>
+      <c r="C1024" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1024" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1025">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2">
+        <v>51200</v>
+      </c>
+      <c r="C1025" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1025" s="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1026">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2">
+        <v>51250</v>
+      </c>
+      <c r="C1026" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1026" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1027">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2">
+        <v>51300</v>
+      </c>
+      <c r="C1027" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1027" s="1">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1028">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2">
+        <v>51350</v>
+      </c>
+      <c r="C1028" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1028" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1029">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2">
+        <v>51400</v>
+      </c>
+      <c r="C1029" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1029" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1030">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2">
+        <v>51450</v>
+      </c>
+      <c r="C1030" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1030" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1031">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2">
+        <v>51500</v>
+      </c>
+      <c r="C1031" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1031" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1032">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2">
+        <v>51550</v>
+      </c>
+      <c r="C1032" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1032" s="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1033">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2">
+        <v>51600</v>
+      </c>
+      <c r="C1033" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1033" s="1">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1034">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2">
+        <v>51650</v>
+      </c>
+      <c r="C1034" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1034" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1035">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2">
+        <v>51700</v>
+      </c>
+      <c r="C1035" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1035" s="1">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1036">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2">
+        <v>51750</v>
+      </c>
+      <c r="C1036" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1036" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1037">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2">
+        <v>51800</v>
+      </c>
+      <c r="C1037" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1037" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1038">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2">
+        <v>51850</v>
+      </c>
+      <c r="C1038" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1038" s="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1039">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2">
+        <v>51900</v>
+      </c>
+      <c r="C1039" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1039" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1040">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2">
+        <v>51950</v>
+      </c>
+      <c r="C1040" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1040" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1041">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2">
+        <v>52000</v>
+      </c>
+      <c r="C1041" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1041" s="1">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1042">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2">
+        <v>52050</v>
+      </c>
+      <c r="C1042" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1042" s="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1043">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2">
+        <v>52100</v>
+      </c>
+      <c r="C1043" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1043" s="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1044">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2">
+        <v>52150</v>
+      </c>
+      <c r="C1044" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1044" s="1">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1045">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2">
+        <v>52200</v>
+      </c>
+      <c r="C1045" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1045" s="1">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1046">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2">
+        <v>52250</v>
+      </c>
+      <c r="C1046" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1046" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1047">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2">
+        <v>52300</v>
+      </c>
+      <c r="C1047" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1047" s="1">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1048">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2">
+        <v>52350</v>
+      </c>
+      <c r="C1048" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1048" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1049">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2">
+        <v>52400</v>
+      </c>
+      <c r="C1049" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1049" s="1">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1050">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2">
+        <v>52450</v>
+      </c>
+      <c r="C1050" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1050" s="1">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1051">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2">
+        <v>52500</v>
+      </c>
+      <c r="C1051" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1051" s="1">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1052">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>52550</v>
+      </c>
+      <c r="C1052" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1052" s="1">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1053">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2">
+        <v>52600</v>
+      </c>
+      <c r="C1053" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1053" s="1">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1054">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="2">
+        <v>52650</v>
+      </c>
+      <c r="C1054" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1054" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1055">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="2">
+        <v>52700</v>
+      </c>
+      <c r="C1055" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1055" s="1">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1056">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>52750</v>
+      </c>
+      <c r="C1056" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1056" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1057">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="2">
+        <v>52800</v>
+      </c>
+      <c r="C1057" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1057" s="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1058">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>52850</v>
+      </c>
+      <c r="C1058" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1058" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1059">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>52900</v>
+      </c>
+      <c r="C1059" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1059" s="1">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1060">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="2">
+        <v>52950</v>
+      </c>
+      <c r="C1060" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1060" s="1">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1061">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>53000</v>
+      </c>
+      <c r="C1061" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1061" s="1">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1062">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="2">
+        <v>53050</v>
+      </c>
+      <c r="C1062" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1062" s="1">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1063">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="2">
+        <v>53100</v>
+      </c>
+      <c r="C1063" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1063" s="1">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1064">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="2">
+        <v>53150</v>
+      </c>
+      <c r="C1064" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1064" s="1">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1065">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="2">
+        <v>53200</v>
+      </c>
+      <c r="C1065" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1065" s="1">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1066">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="2">
+        <v>53250</v>
+      </c>
+      <c r="C1066" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1066" s="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1067">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="2">
+        <v>53300</v>
+      </c>
+      <c r="C1067" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1067" s="1">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1068">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="2">
+        <v>53350</v>
+      </c>
+      <c r="C1068" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1068" s="1">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1069">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2">
+        <v>53400</v>
+      </c>
+      <c r="C1069" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1069" s="1">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1070">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="2">
+        <v>53450</v>
+      </c>
+      <c r="C1070" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1070" s="1">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1071">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="2">
+        <v>53500</v>
+      </c>
+      <c r="C1071" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1071" s="1">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1072">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>53550</v>
+      </c>
+      <c r="C1072" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1072" s="1">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1073">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="2">
+        <v>53600</v>
+      </c>
+      <c r="C1073" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1073" s="1">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1074">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="2">
+        <v>53650</v>
+      </c>
+      <c r="C1074" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1074" s="1">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1075">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="2">
+        <v>53700</v>
+      </c>
+      <c r="C1075" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1075" s="1">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1076">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="2">
+        <v>53750</v>
+      </c>
+      <c r="C1076" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1076" s="1">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1077">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="2">
+        <v>53800</v>
+      </c>
+      <c r="C1077" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1077" s="1">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1078">
+        <v>1076</v>
+      </c>
+      <c r="B1078" s="2">
+        <v>53850</v>
+      </c>
+      <c r="C1078" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1078" s="1">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1079">
+        <v>1077</v>
+      </c>
+      <c r="B1079" s="2">
+        <v>53900</v>
+      </c>
+      <c r="C1079" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1079" s="1">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1080">
+        <v>1078</v>
+      </c>
+      <c r="B1080" s="2">
+        <v>53950</v>
+      </c>
+      <c r="C1080" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1080" s="1">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1081">
+        <v>1079</v>
+      </c>
+      <c r="B1081" s="2">
+        <v>54000</v>
+      </c>
+      <c r="C1081" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1081" s="1">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1082">
+        <v>1080</v>
+      </c>
+      <c r="B1082" s="2">
+        <v>54050</v>
+      </c>
+      <c r="C1082" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="D1082" s="1">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1083">
+        <v>1081</v>
+      </c>
+      <c r="B1083" s="2">
+        <v>54100</v>
+      </c>
+      <c r="C1083" s="1">
+        <f t="shared" ref="C1083:C1146" si="20">C1082</f>
+        <v>-1</v>
+      </c>
+      <c r="D1083" s="1">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1084">
+        <v>1082</v>
+      </c>
+      <c r="B1084" s="2">
+        <v>54150</v>
+      </c>
+      <c r="C1084" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1084" s="1">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1085">
+        <v>1083</v>
+      </c>
+      <c r="B1085" s="2">
+        <v>54200</v>
+      </c>
+      <c r="C1085" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1085" s="1">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1086">
+        <v>1084</v>
+      </c>
+      <c r="B1086" s="2">
+        <v>54250</v>
+      </c>
+      <c r="C1086" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1086" s="1">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1087">
+        <v>1085</v>
+      </c>
+      <c r="B1087" s="2">
+        <v>54300</v>
+      </c>
+      <c r="C1087" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1087" s="1">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088">
+        <v>1086</v>
+      </c>
+      <c r="B1088" s="2">
+        <v>54350</v>
+      </c>
+      <c r="C1088" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1088" s="1">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089">
+        <v>1087</v>
+      </c>
+      <c r="B1089" s="2">
+        <v>54400</v>
+      </c>
+      <c r="C1089" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1089" s="1">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090">
+        <v>1088</v>
+      </c>
+      <c r="B1090" s="2">
+        <v>54450</v>
+      </c>
+      <c r="C1090" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1090" s="1">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091">
+        <v>1089</v>
+      </c>
+      <c r="B1091" s="2">
+        <v>54500</v>
+      </c>
+      <c r="C1091" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1091" s="1">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092">
+        <v>1090</v>
+      </c>
+      <c r="B1092" s="2">
+        <v>54550</v>
+      </c>
+      <c r="C1092" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1092" s="1">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093">
+        <v>1091</v>
+      </c>
+      <c r="B1093" s="2">
+        <v>54600</v>
+      </c>
+      <c r="C1093" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1093" s="1">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094">
+        <v>1092</v>
+      </c>
+      <c r="B1094" s="2">
+        <v>54650</v>
+      </c>
+      <c r="C1094" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1094" s="1">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095">
+        <v>1093</v>
+      </c>
+      <c r="B1095" s="2">
+        <v>54700</v>
+      </c>
+      <c r="C1095" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1095" s="1">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096">
+        <v>1094</v>
+      </c>
+      <c r="B1096" s="2">
+        <v>54750</v>
+      </c>
+      <c r="C1096" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1096" s="1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097">
+        <v>1095</v>
+      </c>
+      <c r="B1097" s="2">
+        <v>54800</v>
+      </c>
+      <c r="C1097" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1097" s="1">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098">
+        <v>1096</v>
+      </c>
+      <c r="B1098" s="2">
+        <v>54850</v>
+      </c>
+      <c r="C1098" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1098" s="1">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099">
+        <v>1097</v>
+      </c>
+      <c r="B1099" s="2">
+        <v>54900</v>
+      </c>
+      <c r="C1099" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1099" s="1">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100">
+        <v>1098</v>
+      </c>
+      <c r="B1100" s="2">
+        <v>54950</v>
+      </c>
+      <c r="C1100" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1100" s="1">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101">
+        <v>1099</v>
+      </c>
+      <c r="B1101" s="2">
+        <v>55000</v>
+      </c>
+      <c r="C1101" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1101" s="1">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102">
+        <v>1100</v>
+      </c>
+      <c r="B1102" s="2">
+        <v>55050</v>
+      </c>
+      <c r="C1102" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1102" s="1">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103">
+        <v>1101</v>
+      </c>
+      <c r="B1103" s="2">
+        <v>55100</v>
+      </c>
+      <c r="C1103" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1103" s="1">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104">
+        <v>1102</v>
+      </c>
+      <c r="B1104" s="2">
+        <v>55150</v>
+      </c>
+      <c r="C1104" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1104" s="1">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105">
+        <v>1103</v>
+      </c>
+      <c r="B1105" s="2">
+        <v>55200</v>
+      </c>
+      <c r="C1105" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1105" s="1">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106">
+        <v>1104</v>
+      </c>
+      <c r="B1106" s="2">
+        <v>55250</v>
+      </c>
+      <c r="C1106" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1106" s="1">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107">
+        <v>1105</v>
+      </c>
+      <c r="B1107" s="2">
+        <v>55300</v>
+      </c>
+      <c r="C1107" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1107" s="1">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108">
+        <v>1106</v>
+      </c>
+      <c r="B1108" s="2">
+        <v>55350</v>
+      </c>
+      <c r="C1108" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1108" s="1">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109">
+        <v>1107</v>
+      </c>
+      <c r="B1109" s="2">
+        <v>55400</v>
+      </c>
+      <c r="C1109" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1109" s="1">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110">
+        <v>1108</v>
+      </c>
+      <c r="B1110" s="2">
+        <v>55450</v>
+      </c>
+      <c r="C1110" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1110" s="1">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111">
+        <v>1109</v>
+      </c>
+      <c r="B1111" s="2">
+        <v>55500</v>
+      </c>
+      <c r="C1111" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1111" s="1">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112">
+        <v>1110</v>
+      </c>
+      <c r="B1112" s="2">
+        <v>55550</v>
+      </c>
+      <c r="C1112" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1112" s="1">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113">
+        <v>1111</v>
+      </c>
+      <c r="B1113" s="2">
+        <v>55600</v>
+      </c>
+      <c r="C1113" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1113" s="1">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114">
+        <v>1112</v>
+      </c>
+      <c r="B1114" s="2">
+        <v>55650</v>
+      </c>
+      <c r="C1114" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1114" s="1">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115">
+        <v>1113</v>
+      </c>
+      <c r="B1115" s="2">
+        <v>55700</v>
+      </c>
+      <c r="C1115" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1115" s="1">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116">
+        <v>1114</v>
+      </c>
+      <c r="B1116" s="2">
+        <v>55750</v>
+      </c>
+      <c r="C1116" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1116" s="1">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117">
+        <v>1115</v>
+      </c>
+      <c r="B1117" s="2">
+        <v>55800</v>
+      </c>
+      <c r="C1117" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1117" s="1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118">
+        <v>1116</v>
+      </c>
+      <c r="B1118" s="2">
+        <v>55850</v>
+      </c>
+      <c r="C1118" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1118" s="1">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119">
+        <v>1117</v>
+      </c>
+      <c r="B1119" s="2">
+        <v>55900</v>
+      </c>
+      <c r="C1119" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1119" s="1">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1120">
+        <v>1118</v>
+      </c>
+      <c r="B1120" s="2">
+        <v>55950</v>
+      </c>
+      <c r="C1120" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1120" s="1">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121">
+        <v>1119</v>
+      </c>
+      <c r="B1121" s="2">
+        <v>56000</v>
+      </c>
+      <c r="C1121" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1121" s="1">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122">
+        <v>1120</v>
+      </c>
+      <c r="B1122" s="2">
+        <v>56050</v>
+      </c>
+      <c r="C1122" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1122" s="1">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123">
+        <v>1121</v>
+      </c>
+      <c r="B1123" s="2">
+        <v>56100</v>
+      </c>
+      <c r="C1123" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1123" s="1">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124">
+        <v>1122</v>
+      </c>
+      <c r="B1124" s="2">
+        <v>56150</v>
+      </c>
+      <c r="C1124" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1124" s="1">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125">
+        <v>1123</v>
+      </c>
+      <c r="B1125" s="2">
+        <v>56200</v>
+      </c>
+      <c r="C1125" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1125" s="1">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126">
+        <v>1124</v>
+      </c>
+      <c r="B1126" s="2">
+        <v>56250</v>
+      </c>
+      <c r="C1126" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1126" s="1">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127">
+        <v>1125</v>
+      </c>
+      <c r="B1127" s="2">
+        <v>56300</v>
+      </c>
+      <c r="C1127" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1127" s="1">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128">
+        <v>1126</v>
+      </c>
+      <c r="B1128" s="2">
+        <v>56350</v>
+      </c>
+      <c r="C1128" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1128" s="1">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129">
+        <v>1127</v>
+      </c>
+      <c r="B1129" s="2">
+        <v>56400</v>
+      </c>
+      <c r="C1129" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1129" s="1">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130">
+        <v>1128</v>
+      </c>
+      <c r="B1130" s="2">
+        <v>56450</v>
+      </c>
+      <c r="C1130" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1130" s="1">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131">
+        <v>1129</v>
+      </c>
+      <c r="B1131" s="2">
+        <v>56500</v>
+      </c>
+      <c r="C1131" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1131" s="1">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132">
+        <v>1130</v>
+      </c>
+      <c r="B1132" s="2">
+        <v>56550</v>
+      </c>
+      <c r="C1132" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1132" s="1">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1133">
+        <v>1131</v>
+      </c>
+      <c r="B1133" s="2">
+        <v>56600</v>
+      </c>
+      <c r="C1133" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1133" s="1">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134">
+        <v>1132</v>
+      </c>
+      <c r="B1134" s="2">
+        <v>56650</v>
+      </c>
+      <c r="C1134" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1134" s="1">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135">
+        <v>1133</v>
+      </c>
+      <c r="B1135" s="2">
+        <v>56700</v>
+      </c>
+      <c r="C1135" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1135" s="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136">
+        <v>1134</v>
+      </c>
+      <c r="B1136" s="2">
+        <v>56750</v>
+      </c>
+      <c r="C1136" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1136" s="1">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1137">
+        <v>1135</v>
+      </c>
+      <c r="B1137" s="2">
+        <v>56800</v>
+      </c>
+      <c r="C1137" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1137" s="1">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1138">
+        <v>1136</v>
+      </c>
+      <c r="B1138" s="2">
+        <v>56850</v>
+      </c>
+      <c r="C1138" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1138" s="1">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1139">
+        <v>1137</v>
+      </c>
+      <c r="B1139" s="2">
+        <v>56900</v>
+      </c>
+      <c r="C1139" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1139" s="1">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1140">
+        <v>1138</v>
+      </c>
+      <c r="B1140" s="2">
+        <v>56950</v>
+      </c>
+      <c r="C1140" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1140" s="1">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1141">
+        <v>1139</v>
+      </c>
+      <c r="B1141" s="2">
+        <v>57000</v>
+      </c>
+      <c r="C1141" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1141" s="1">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1142">
+        <v>1140</v>
+      </c>
+      <c r="B1142" s="2">
+        <v>57050</v>
+      </c>
+      <c r="C1142" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1142" s="1">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1143">
+        <v>1141</v>
+      </c>
+      <c r="B1143" s="2">
+        <v>57100</v>
+      </c>
+      <c r="C1143" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1143" s="1">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1144">
+        <v>1142</v>
+      </c>
+      <c r="B1144" s="2">
+        <v>57150</v>
+      </c>
+      <c r="C1144" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1144" s="1">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1145">
+        <v>1143</v>
+      </c>
+      <c r="B1145" s="2">
+        <v>57200</v>
+      </c>
+      <c r="C1145" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1145" s="1">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1146">
+        <v>1144</v>
+      </c>
+      <c r="B1146" s="2">
+        <v>57250</v>
+      </c>
+      <c r="C1146" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="D1146" s="1">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1147">
+        <v>1145</v>
+      </c>
+      <c r="B1147" s="2">
+        <v>57300</v>
+      </c>
+      <c r="C1147" s="1">
+        <f t="shared" ref="C1147:C1210" si="21">C1146</f>
+        <v>-1</v>
+      </c>
+      <c r="D1147" s="1">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1148">
+        <v>1146</v>
+      </c>
+      <c r="B1148" s="2">
+        <v>57350</v>
+      </c>
+      <c r="C1148" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1148" s="1">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1149">
+        <v>1147</v>
+      </c>
+      <c r="B1149" s="2">
+        <v>57400</v>
+      </c>
+      <c r="C1149" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1149" s="1">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1150">
+        <v>1148</v>
+      </c>
+      <c r="B1150" s="2">
+        <v>57450</v>
+      </c>
+      <c r="C1150" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1150" s="1">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1151">
+        <v>1149</v>
+      </c>
+      <c r="B1151" s="2">
+        <v>57500</v>
+      </c>
+      <c r="C1151" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1151" s="1">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1152">
+        <v>1150</v>
+      </c>
+      <c r="B1152" s="2">
+        <v>57550</v>
+      </c>
+      <c r="C1152" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1152" s="1">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1153">
+        <v>1151</v>
+      </c>
+      <c r="B1153" s="2">
+        <v>57600</v>
+      </c>
+      <c r="C1153" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1153" s="1">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1154">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>57650</v>
+      </c>
+      <c r="C1154" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1154" s="1">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1155">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>57700</v>
+      </c>
+      <c r="C1155" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1155" s="1">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1156">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>57750</v>
+      </c>
+      <c r="C1156" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1156" s="1">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1157">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>57800</v>
+      </c>
+      <c r="C1157" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1157" s="1">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1158">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>57850</v>
+      </c>
+      <c r="C1158" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1158" s="1">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1159">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>57900</v>
+      </c>
+      <c r="C1159" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1159" s="1">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1160">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>57950</v>
+      </c>
+      <c r="C1160" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1160" s="1">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1161">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>58000</v>
+      </c>
+      <c r="C1161" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1161" s="1">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1162">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>58050</v>
+      </c>
+      <c r="C1162" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1162" s="1">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1163">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>58100</v>
+      </c>
+      <c r="C1163" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1163" s="1">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1164">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>58150</v>
+      </c>
+      <c r="C1164" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1164" s="1">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1165">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>58200</v>
+      </c>
+      <c r="C1165" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1165" s="1">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>58250</v>
+      </c>
+      <c r="C1166" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1166" s="1">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>58300</v>
+      </c>
+      <c r="C1167" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1167" s="1">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>58350</v>
+      </c>
+      <c r="C1168" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1168" s="1">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1169">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>58400</v>
+      </c>
+      <c r="C1169" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1169" s="1">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1170">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>58450</v>
+      </c>
+      <c r="C1170" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1170" s="1">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1171">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>58500</v>
+      </c>
+      <c r="C1171" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1171" s="1">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1172">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>58550</v>
+      </c>
+      <c r="C1172" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1172" s="1">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1173">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>58600</v>
+      </c>
+      <c r="C1173" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1173" s="1">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1174">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>58650</v>
+      </c>
+      <c r="C1174" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1174" s="1">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1175">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>58700</v>
+      </c>
+      <c r="C1175" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1175" s="1">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1176">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>58750</v>
+      </c>
+      <c r="C1176" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1176" s="1">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1177">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>58800</v>
+      </c>
+      <c r="C1177" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1177" s="1">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1178">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>58850</v>
+      </c>
+      <c r="C1178" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1178" s="1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1179">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>58900</v>
+      </c>
+      <c r="C1179" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1179" s="1">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1180">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>58950</v>
+      </c>
+      <c r="C1180" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1180" s="1">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1181">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>59000</v>
+      </c>
+      <c r="C1181" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1181" s="1">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1182">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>59050</v>
+      </c>
+      <c r="C1182" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1182" s="1">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1183">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>59100</v>
+      </c>
+      <c r="C1183" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1183" s="1">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1184">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>59150</v>
+      </c>
+      <c r="C1184" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1184" s="1">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1185">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>59200</v>
+      </c>
+      <c r="C1185" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1185" s="1">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1186">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>59250</v>
+      </c>
+      <c r="C1186" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1186" s="1">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1187">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>59300</v>
+      </c>
+      <c r="C1187" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1187" s="1">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1188">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>59350</v>
+      </c>
+      <c r="C1188" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1188" s="1">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1189">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>59400</v>
+      </c>
+      <c r="C1189" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1189" s="1">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1190">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>59450</v>
+      </c>
+      <c r="C1190" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1190" s="1">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>59500</v>
+      </c>
+      <c r="C1191" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1191" s="1">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>59550</v>
+      </c>
+      <c r="C1192" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1192" s="1">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>59600</v>
+      </c>
+      <c r="C1193" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1193" s="1">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>59650</v>
+      </c>
+      <c r="C1194" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1194" s="1">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>59700</v>
+      </c>
+      <c r="C1195" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1195" s="1">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>59750</v>
+      </c>
+      <c r="C1196" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1196" s="1">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>59800</v>
+      </c>
+      <c r="C1197" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1197" s="1">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>59850</v>
+      </c>
+      <c r="C1198" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1198" s="1">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>59900</v>
+      </c>
+      <c r="C1199" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1199" s="1">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>59950</v>
+      </c>
+      <c r="C1200" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1200" s="1">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>60000</v>
+      </c>
+      <c r="C1201" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1201" s="1">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>60050</v>
+      </c>
+      <c r="C1202" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1202" s="1">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>60100</v>
+      </c>
+      <c r="C1203" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1203" s="1">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>60150</v>
+      </c>
+      <c r="C1204" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1204" s="1">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>60200</v>
+      </c>
+      <c r="C1205" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1205" s="1">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>60250</v>
+      </c>
+      <c r="C1206" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1206" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>60300</v>
+      </c>
+      <c r="C1207" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1207" s="1">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>60350</v>
+      </c>
+      <c r="C1208" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1208" s="1">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>60400</v>
+      </c>
+      <c r="C1209" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1209" s="1">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>60450</v>
+      </c>
+      <c r="C1210" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="D1210" s="1">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>60500</v>
+      </c>
+      <c r="C1211" s="1">
+        <f t="shared" ref="C1211:C1274" si="22">C1210</f>
+        <v>-1</v>
+      </c>
+      <c r="D1211" s="1">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>60550</v>
+      </c>
+      <c r="C1212" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1212" s="1">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>60600</v>
+      </c>
+      <c r="C1213" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1213" s="1">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>60650</v>
+      </c>
+      <c r="C1214" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1214" s="1">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>60700</v>
+      </c>
+      <c r="C1215" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1215" s="1">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>60750</v>
+      </c>
+      <c r="C1216" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1216" s="1">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>60800</v>
+      </c>
+      <c r="C1217" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1217" s="1">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>60850</v>
+      </c>
+      <c r="C1218" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1218" s="1">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>60900</v>
+      </c>
+      <c r="C1219" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1219" s="1">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>60950</v>
+      </c>
+      <c r="C1220" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1220" s="1">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>61000</v>
+      </c>
+      <c r="C1221" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1221" s="1">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>61050</v>
+      </c>
+      <c r="C1222" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1222" s="1">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>61100</v>
+      </c>
+      <c r="C1223" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1223" s="1">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>61150</v>
+      </c>
+      <c r="C1224" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1224" s="1">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>61200</v>
+      </c>
+      <c r="C1225" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1225" s="1">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>61250</v>
+      </c>
+      <c r="C1226" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1226" s="1">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>61300</v>
+      </c>
+      <c r="C1227" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1227" s="1">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>61350</v>
+      </c>
+      <c r="C1228" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1228" s="1">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>61400</v>
+      </c>
+      <c r="C1229" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1229" s="1">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>61450</v>
+      </c>
+      <c r="C1230" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1230" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>61500</v>
+      </c>
+      <c r="C1231" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1231" s="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>61550</v>
+      </c>
+      <c r="C1232" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1232" s="1">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>61600</v>
+      </c>
+      <c r="C1233" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1233" s="1">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>61650</v>
+      </c>
+      <c r="C1234" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1234" s="1">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>61700</v>
+      </c>
+      <c r="C1235" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1235" s="1">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>61750</v>
+      </c>
+      <c r="C1236" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1236" s="1">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>61800</v>
+      </c>
+      <c r="C1237" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1237" s="1">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>61850</v>
+      </c>
+      <c r="C1238" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1238" s="1">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>61900</v>
+      </c>
+      <c r="C1239" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1239" s="1">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>61950</v>
+      </c>
+      <c r="C1240" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1240" s="1">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>62000</v>
+      </c>
+      <c r="C1241" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1241" s="1">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>62050</v>
+      </c>
+      <c r="C1242" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1242" s="1">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>62100</v>
+      </c>
+      <c r="C1243" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1243" s="1">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>62150</v>
+      </c>
+      <c r="C1244" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1244" s="1">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>62200</v>
+      </c>
+      <c r="C1245" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1245" s="1">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>62250</v>
+      </c>
+      <c r="C1246" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1246" s="1">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>62300</v>
+      </c>
+      <c r="C1247" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1247" s="1">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>62350</v>
+      </c>
+      <c r="C1248" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1248" s="1">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>62400</v>
+      </c>
+      <c r="C1249" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1249" s="1">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>62450</v>
+      </c>
+      <c r="C1250" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1250" s="1">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>62500</v>
+      </c>
+      <c r="C1251" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1251" s="1">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>62550</v>
+      </c>
+      <c r="C1252" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1252" s="1">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>62600</v>
+      </c>
+      <c r="C1253" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1253" s="1">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>62650</v>
+      </c>
+      <c r="C1254" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1254" s="1">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>62700</v>
+      </c>
+      <c r="C1255" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1255" s="1">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>62750</v>
+      </c>
+      <c r="C1256" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1256" s="1">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>62800</v>
+      </c>
+      <c r="C1257" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1257" s="1">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>62850</v>
+      </c>
+      <c r="C1258" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1258" s="1">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2">
+        <v>62900</v>
+      </c>
+      <c r="C1259" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1259" s="1">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>62950</v>
+      </c>
+      <c r="C1260" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1260" s="1">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>63000</v>
+      </c>
+      <c r="C1261" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1261" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>63050</v>
+      </c>
+      <c r="C1262" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1262" s="1">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>63100</v>
+      </c>
+      <c r="C1263" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1263" s="1">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2">
+        <v>63150</v>
+      </c>
+      <c r="C1264" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1264" s="1">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2">
+        <v>63200</v>
+      </c>
+      <c r="C1265" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1265" s="1">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2">
+        <v>63250</v>
+      </c>
+      <c r="C1266" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1266" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>63300</v>
+      </c>
+      <c r="C1267" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1267" s="1">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>63350</v>
+      </c>
+      <c r="C1268" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1268" s="1">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>63400</v>
+      </c>
+      <c r="C1269" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1269" s="1">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>63450</v>
+      </c>
+      <c r="C1270" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1270" s="1">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>63500</v>
+      </c>
+      <c r="C1271" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1271" s="1">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>63550</v>
+      </c>
+      <c r="C1272" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1272" s="1">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>63600</v>
+      </c>
+      <c r="C1273" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1273" s="1">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="2">
+        <v>63650</v>
+      </c>
+      <c r="C1274" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="D1274" s="1">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="2">
+        <v>63700</v>
+      </c>
+      <c r="C1275" s="1">
+        <f t="shared" ref="C1275:C1338" si="23">C1274</f>
+        <v>-1</v>
+      </c>
+      <c r="D1275" s="1">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="2">
+        <v>63750</v>
+      </c>
+      <c r="C1276" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1276" s="1">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="2">
+        <v>63800</v>
+      </c>
+      <c r="C1277" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1277" s="1">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="2">
+        <v>63850</v>
+      </c>
+      <c r="C1278" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1278" s="1">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="2">
+        <v>63900</v>
+      </c>
+      <c r="C1279" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1279" s="1">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="2">
+        <v>63950</v>
+      </c>
+      <c r="C1280" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1280" s="1">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="2">
+        <v>64000</v>
+      </c>
+      <c r="C1281" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1281" s="1">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2">
+        <v>64050</v>
+      </c>
+      <c r="C1282" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1282" s="1">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2">
+        <v>64100</v>
+      </c>
+      <c r="C1283" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1283" s="1">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2">
+        <v>64150</v>
+      </c>
+      <c r="C1284" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1284" s="1">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2">
+        <v>64200</v>
+      </c>
+      <c r="C1285" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1285" s="1">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2">
+        <v>64250</v>
+      </c>
+      <c r="C1286" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1286" s="1">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>64300</v>
+      </c>
+      <c r="C1287" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1287" s="1">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2">
+        <v>64350</v>
+      </c>
+      <c r="C1288" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1288" s="1">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2">
+        <v>64400</v>
+      </c>
+      <c r="C1289" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1289" s="1">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2">
+        <v>64450</v>
+      </c>
+      <c r="C1290" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1290" s="1">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2">
+        <v>64500</v>
+      </c>
+      <c r="C1291" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1291" s="1">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2">
+        <v>64550</v>
+      </c>
+      <c r="C1292" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1292" s="1">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1293">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2">
+        <v>64600</v>
+      </c>
+      <c r="C1293" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1293" s="1">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2">
+        <v>64650</v>
+      </c>
+      <c r="C1294" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1294" s="1">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2">
+        <v>64700</v>
+      </c>
+      <c r="C1295" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1295" s="1">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2">
+        <v>64750</v>
+      </c>
+      <c r="C1296" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1296" s="1">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2">
+        <v>64800</v>
+      </c>
+      <c r="C1297" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1297" s="1">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2">
+        <v>64850</v>
+      </c>
+      <c r="C1298" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1298" s="1">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1299">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2">
+        <v>64900</v>
+      </c>
+      <c r="C1299" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1299" s="1">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2">
+        <v>64950</v>
+      </c>
+      <c r="C1300" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1300" s="1">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2">
+        <v>65000</v>
+      </c>
+      <c r="C1301" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1301" s="1">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1302">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2">
+        <v>65050</v>
+      </c>
+      <c r="C1302" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1302" s="1">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2">
+        <v>65100</v>
+      </c>
+      <c r="C1303" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1303" s="1">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1304">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2">
+        <v>65150</v>
+      </c>
+      <c r="C1304" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1304" s="1">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1305">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2">
+        <v>65200</v>
+      </c>
+      <c r="C1305" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1305" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1306">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2">
+        <v>65250</v>
+      </c>
+      <c r="C1306" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1306" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2">
+        <v>65300</v>
+      </c>
+      <c r="C1307" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1307" s="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2">
+        <v>65350</v>
+      </c>
+      <c r="C1308" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1308" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2">
+        <v>65400</v>
+      </c>
+      <c r="C1309" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1309" s="1">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2">
+        <v>65450</v>
+      </c>
+      <c r="C1310" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1310" s="1">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1311">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2">
+        <v>65500</v>
+      </c>
+      <c r="C1311" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1311" s="1">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1312">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2">
+        <v>65550</v>
+      </c>
+      <c r="C1312" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1312" s="1">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1313">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2">
+        <v>65600</v>
+      </c>
+      <c r="C1313" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1313" s="1">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1314">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2">
+        <v>65650</v>
+      </c>
+      <c r="C1314" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1314" s="1">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1315">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2">
+        <v>65700</v>
+      </c>
+      <c r="C1315" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1315" s="1">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1316">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2">
+        <v>65750</v>
+      </c>
+      <c r="C1316" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1316" s="1">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1317">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2">
+        <v>65800</v>
+      </c>
+      <c r="C1317" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1317" s="1">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1318">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2">
+        <v>65850</v>
+      </c>
+      <c r="C1318" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1318" s="1">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1319">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2">
+        <v>65900</v>
+      </c>
+      <c r="C1319" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1319" s="1">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1320">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2">
+        <v>65950</v>
+      </c>
+      <c r="C1320" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1320" s="1">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1321">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2">
+        <v>66000</v>
+      </c>
+      <c r="C1321" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1321" s="1">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1322">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2">
+        <v>66050</v>
+      </c>
+      <c r="C1322" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1322" s="1">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1323">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>66100</v>
+      </c>
+      <c r="C1323" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1323" s="1">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1324">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2">
+        <v>66150</v>
+      </c>
+      <c r="C1324" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1324" s="1">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1325">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>66200</v>
+      </c>
+      <c r="C1325" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1325" s="1">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1326">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2">
+        <v>66250</v>
+      </c>
+      <c r="C1326" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1326" s="1">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1327">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2">
+        <v>66300</v>
+      </c>
+      <c r="C1327" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1327" s="1">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1328">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2">
+        <v>66350</v>
+      </c>
+      <c r="C1328" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1328" s="1">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1329">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2">
+        <v>66400</v>
+      </c>
+      <c r="C1329" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1329" s="1">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1330">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2">
+        <v>66450</v>
+      </c>
+      <c r="C1330" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1330" s="1">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1331">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2">
+        <v>66500</v>
+      </c>
+      <c r="C1331" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1331" s="1">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1332">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2">
+        <v>66550</v>
+      </c>
+      <c r="C1332" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1332" s="1">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1333">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2">
+        <v>66600</v>
+      </c>
+      <c r="C1333" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1333" s="1">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1334">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2">
+        <v>66650</v>
+      </c>
+      <c r="C1334" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1334" s="1">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1335">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2">
+        <v>66700</v>
+      </c>
+      <c r="C1335" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1335" s="1">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1336">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2">
+        <v>66750</v>
+      </c>
+      <c r="C1336" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1336" s="1">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1337">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2">
+        <v>66800</v>
+      </c>
+      <c r="C1337" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1337" s="1">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1338">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2">
+        <v>66850</v>
+      </c>
+      <c r="C1338" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="D1338" s="1">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1339">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2">
+        <v>66900</v>
+      </c>
+      <c r="C1339" s="1">
+        <f t="shared" ref="C1339:C1401" si="24">C1338</f>
+        <v>-1</v>
+      </c>
+      <c r="D1339" s="1">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1340">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2">
+        <v>66950</v>
+      </c>
+      <c r="C1340" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1340" s="1">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1341">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2">
+        <v>67000</v>
+      </c>
+      <c r="C1341" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1341" s="1">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1342">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2">
+        <v>67050</v>
+      </c>
+      <c r="C1342" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1342" s="1">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1343">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2">
+        <v>67100</v>
+      </c>
+      <c r="C1343" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1343" s="1">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1344">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2">
+        <v>67150</v>
+      </c>
+      <c r="C1344" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1344" s="1">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1345">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2">
+        <v>67200</v>
+      </c>
+      <c r="C1345" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1345" s="1">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1346">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2">
+        <v>67250</v>
+      </c>
+      <c r="C1346" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1346" s="1">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1347">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2">
+        <v>67300</v>
+      </c>
+      <c r="C1347" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1347" s="1">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1348">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2">
+        <v>67350</v>
+      </c>
+      <c r="C1348" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1348" s="1">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1349">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2">
+        <v>67400</v>
+      </c>
+      <c r="C1349" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1349" s="1">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1350">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2">
+        <v>67450</v>
+      </c>
+      <c r="C1350" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1350" s="1">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1351">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2">
+        <v>67500</v>
+      </c>
+      <c r="C1351" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1351" s="1">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1352">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2">
+        <v>67550</v>
+      </c>
+      <c r="C1352" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1352" s="1">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1353">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2">
+        <v>67600</v>
+      </c>
+      <c r="C1353" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1353" s="1">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1354">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2">
+        <v>67650</v>
+      </c>
+      <c r="C1354" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1354" s="1">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1355">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2">
+        <v>67700</v>
+      </c>
+      <c r="C1355" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1355" s="1">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1356">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="2">
+        <v>67750</v>
+      </c>
+      <c r="C1356" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1356" s="1">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1357">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="2">
+        <v>67800</v>
+      </c>
+      <c r="C1357" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1357" s="1">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1358">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>67850</v>
+      </c>
+      <c r="C1358" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1358" s="1">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1359">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>67900</v>
+      </c>
+      <c r="C1359" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1359" s="1">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1360">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="2">
+        <v>67950</v>
+      </c>
+      <c r="C1360" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1360" s="1">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1361">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="2">
+        <v>68000</v>
+      </c>
+      <c r="C1361" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1361" s="1">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1362">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="2">
+        <v>68050</v>
+      </c>
+      <c r="C1362" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1362" s="1">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1363">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="2">
+        <v>68100</v>
+      </c>
+      <c r="C1363" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1363" s="1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1364">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>68150</v>
+      </c>
+      <c r="C1364" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1364" s="1">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1365">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>68200</v>
+      </c>
+      <c r="C1365" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1365" s="1">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1366">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="2">
+        <v>68250</v>
+      </c>
+      <c r="C1366" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1366" s="1">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1367">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="2">
+        <v>68300</v>
+      </c>
+      <c r="C1367" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1367" s="1">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1368">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="2">
+        <v>68350</v>
+      </c>
+      <c r="C1368" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1368" s="1">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1369">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="2">
+        <v>68400</v>
+      </c>
+      <c r="C1369" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1369" s="1">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1370">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="2">
+        <v>68450</v>
+      </c>
+      <c r="C1370" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1370" s="1">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1371">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="2">
+        <v>68500</v>
+      </c>
+      <c r="C1371" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1371" s="1">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1372">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="2">
+        <v>68550</v>
+      </c>
+      <c r="C1372" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1372" s="1">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1373">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="2">
+        <v>68600</v>
+      </c>
+      <c r="C1373" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1373" s="1">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1374">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="2">
+        <v>68650</v>
+      </c>
+      <c r="C1374" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1374" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1375">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="2">
+        <v>68700</v>
+      </c>
+      <c r="C1375" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1375" s="1">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1376">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="2">
+        <v>68750</v>
+      </c>
+      <c r="C1376" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1376" s="1">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1377">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="2">
+        <v>68800</v>
+      </c>
+      <c r="C1377" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1377" s="1">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1378">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="2">
+        <v>68850</v>
+      </c>
+      <c r="C1378" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1378" s="1">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1379">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="2">
+        <v>68900</v>
+      </c>
+      <c r="C1379" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1379" s="1">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1380">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="2">
+        <v>68950</v>
+      </c>
+      <c r="C1380" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1380" s="1">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1381">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="2">
+        <v>69000</v>
+      </c>
+      <c r="C1381" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1381" s="1">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1382">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="2">
+        <v>69050</v>
+      </c>
+      <c r="C1382" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1382" s="1">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1383">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="2">
+        <v>69100</v>
+      </c>
+      <c r="C1383" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1383" s="1">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1384">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="2">
+        <v>69150</v>
+      </c>
+      <c r="C1384" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1384" s="1">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1385">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="2">
+        <v>69200</v>
+      </c>
+      <c r="C1385" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1385" s="1">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1386">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="2">
+        <v>69250</v>
+      </c>
+      <c r="C1386" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1386" s="1">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1387">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="2">
+        <v>69300</v>
+      </c>
+      <c r="C1387" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1387" s="1">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1388">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="2">
+        <v>69350</v>
+      </c>
+      <c r="C1388" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1388" s="1">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1389">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="2">
+        <v>69400</v>
+      </c>
+      <c r="C1389" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1389" s="1">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1390">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="2">
+        <v>69450</v>
+      </c>
+      <c r="C1390" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1390" s="1">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1391">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="2">
+        <v>69500</v>
+      </c>
+      <c r="C1391" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1391" s="1">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1392">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="2">
+        <v>69550</v>
+      </c>
+      <c r="C1392" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1392" s="1">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1393">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="2">
+        <v>69600</v>
+      </c>
+      <c r="C1393" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1393" s="1">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1394">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="2">
+        <v>69650</v>
+      </c>
+      <c r="C1394" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1394" s="1">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1395">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="2">
+        <v>69700</v>
+      </c>
+      <c r="C1395" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1395" s="1">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1396">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="2">
+        <v>69750</v>
+      </c>
+      <c r="C1396" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1396" s="1">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1397">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="2">
+        <v>69800</v>
+      </c>
+      <c r="C1397" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1397" s="1">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1398">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="2">
+        <v>69850</v>
+      </c>
+      <c r="C1398" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1398" s="1">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1399">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="2">
+        <v>69900</v>
+      </c>
+      <c r="C1399" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1399" s="1">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1400">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="2">
+        <v>69950</v>
+      </c>
+      <c r="C1400" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1400" s="1">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1401">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="2">
+        <v>70000</v>
+      </c>
+      <c r="C1401" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1401" s="1">
+        <v>1395</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicUpgrade.xlsx
+++ b/Assets/06.Table/RelicUpgrade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC5FB82-6F7D-4C20-801D-3E49D97F7C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A94EC82-0EDE-4659-8592-4AE14C306E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -436,11 +436,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:D1401"/>
+  <dimension ref="A1:D2001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1392" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1400" sqref="B1400"/>
+      <pane ySplit="1" topLeftCell="A1997" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2000" sqref="B2000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20526,7 +20526,7 @@
         <v>66900</v>
       </c>
       <c r="C1339" s="1">
-        <f t="shared" ref="C1339:C1401" si="24">C1338</f>
+        <f t="shared" ref="C1339:C1402" si="24">C1338</f>
         <v>-1</v>
       </c>
       <c r="D1339" s="1">
@@ -21461,6 +21461,9006 @@
       </c>
       <c r="D1401" s="1">
         <v>1395</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1402">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="2">
+        <v>70050</v>
+      </c>
+      <c r="C1402" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="D1402" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1403">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="2">
+        <v>70100</v>
+      </c>
+      <c r="C1403" s="1">
+        <f t="shared" ref="C1403:C1466" si="25">C1402</f>
+        <v>-1</v>
+      </c>
+      <c r="D1403" s="1">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1404">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="2">
+        <v>70150</v>
+      </c>
+      <c r="C1404" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1404" s="1">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1405">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="2">
+        <v>70200</v>
+      </c>
+      <c r="C1405" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1405" s="1">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1406">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="2">
+        <v>70250</v>
+      </c>
+      <c r="C1406" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1406" s="1">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1407">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="2">
+        <v>70300</v>
+      </c>
+      <c r="C1407" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1407" s="1">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1408">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="2">
+        <v>70350</v>
+      </c>
+      <c r="C1408" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1408" s="1">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1409">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="2">
+        <v>70400</v>
+      </c>
+      <c r="C1409" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1409" s="1">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1410">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="2">
+        <v>70450</v>
+      </c>
+      <c r="C1410" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1410" s="1">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1411">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="2">
+        <v>70500</v>
+      </c>
+      <c r="C1411" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1411" s="1">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1412">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="2">
+        <v>70550</v>
+      </c>
+      <c r="C1412" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1412" s="1">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1413">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="2">
+        <v>70600</v>
+      </c>
+      <c r="C1413" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1413" s="1">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1414">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="2">
+        <v>70650</v>
+      </c>
+      <c r="C1414" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1414" s="1">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1415">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="2">
+        <v>70700</v>
+      </c>
+      <c r="C1415" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1415" s="1">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1416">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="2">
+        <v>70750</v>
+      </c>
+      <c r="C1416" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1416" s="1">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1417">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C1417" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1417" s="1">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1418">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="2">
+        <v>70850</v>
+      </c>
+      <c r="C1418" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1418" s="1">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1419">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="2">
+        <v>70900</v>
+      </c>
+      <c r="C1419" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1419" s="1">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1420">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="2">
+        <v>70950</v>
+      </c>
+      <c r="C1420" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1420" s="1">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1421">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="2">
+        <v>71000</v>
+      </c>
+      <c r="C1421" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1421" s="1">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1422">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="2">
+        <v>71050</v>
+      </c>
+      <c r="C1422" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1422" s="1">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1423">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="2">
+        <v>71100</v>
+      </c>
+      <c r="C1423" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1423" s="1">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1424">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="2">
+        <v>71150</v>
+      </c>
+      <c r="C1424" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1424" s="1">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1425">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="2">
+        <v>71200</v>
+      </c>
+      <c r="C1425" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1425" s="1">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1426">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="2">
+        <v>71250</v>
+      </c>
+      <c r="C1426" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1426" s="1">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1427">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="2">
+        <v>71300</v>
+      </c>
+      <c r="C1427" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1427" s="1">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1428">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="2">
+        <v>71350</v>
+      </c>
+      <c r="C1428" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1428" s="1">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1429">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="2">
+        <v>71400</v>
+      </c>
+      <c r="C1429" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1429" s="1">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1430">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="2">
+        <v>71450</v>
+      </c>
+      <c r="C1430" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1430" s="1">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1431">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="2">
+        <v>71500</v>
+      </c>
+      <c r="C1431" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1431" s="1">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1432">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="2">
+        <v>71550</v>
+      </c>
+      <c r="C1432" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1432" s="1">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1433">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="2">
+        <v>71600</v>
+      </c>
+      <c r="C1433" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1433" s="1">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1434">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="2">
+        <v>71650</v>
+      </c>
+      <c r="C1434" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1434" s="1">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1435">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="2">
+        <v>71700</v>
+      </c>
+      <c r="C1435" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1435" s="1">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1436">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="2">
+        <v>71750</v>
+      </c>
+      <c r="C1436" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1436" s="1">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1437">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="2">
+        <v>71800</v>
+      </c>
+      <c r="C1437" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1437" s="1">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1438">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="2">
+        <v>71850</v>
+      </c>
+      <c r="C1438" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1438" s="1">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1439">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="2">
+        <v>71900</v>
+      </c>
+      <c r="C1439" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1439" s="1">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1440">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="2">
+        <v>71950</v>
+      </c>
+      <c r="C1440" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1440" s="1">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1441">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="2">
+        <v>72000</v>
+      </c>
+      <c r="C1441" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1441" s="1">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1442">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="2">
+        <v>72050</v>
+      </c>
+      <c r="C1442" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1442" s="1">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1443">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="2">
+        <v>72100</v>
+      </c>
+      <c r="C1443" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1443" s="1">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1444">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="2">
+        <v>72150</v>
+      </c>
+      <c r="C1444" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1444" s="1">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1445">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="2">
+        <v>72200</v>
+      </c>
+      <c r="C1445" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1445" s="1">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1446">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="2">
+        <v>72250</v>
+      </c>
+      <c r="C1446" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1446" s="1">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1447">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="2">
+        <v>72300</v>
+      </c>
+      <c r="C1447" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1447" s="1">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1448">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="2">
+        <v>72350</v>
+      </c>
+      <c r="C1448" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1448" s="1">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1449">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="2">
+        <v>72400</v>
+      </c>
+      <c r="C1449" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1449" s="1">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1450">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="2">
+        <v>72450</v>
+      </c>
+      <c r="C1450" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1450" s="1">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1451">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="2">
+        <v>72500</v>
+      </c>
+      <c r="C1451" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1451" s="1">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1452">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="2">
+        <v>72550</v>
+      </c>
+      <c r="C1452" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1452" s="1">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1453">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="2">
+        <v>72600</v>
+      </c>
+      <c r="C1453" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1453" s="1">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1454">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="2">
+        <v>72650</v>
+      </c>
+      <c r="C1454" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1454" s="1">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1455">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="2">
+        <v>72700</v>
+      </c>
+      <c r="C1455" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1455" s="1">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1456">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="2">
+        <v>72750</v>
+      </c>
+      <c r="C1456" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1456" s="1">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1457">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="2">
+        <v>72800</v>
+      </c>
+      <c r="C1457" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1458">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="2">
+        <v>72850</v>
+      </c>
+      <c r="C1458" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1458" s="1">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1459">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="2">
+        <v>72900</v>
+      </c>
+      <c r="C1459" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1459" s="1">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1460">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="2">
+        <v>72950</v>
+      </c>
+      <c r="C1460" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1460" s="1">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1461">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="2">
+        <v>73000</v>
+      </c>
+      <c r="C1461" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1461" s="1">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1462">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="2">
+        <v>73050</v>
+      </c>
+      <c r="C1462" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1462" s="1">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1463">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="2">
+        <v>73100</v>
+      </c>
+      <c r="C1463" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1463" s="1">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1464">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="2">
+        <v>73150</v>
+      </c>
+      <c r="C1464" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1464" s="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1465">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="2">
+        <v>73200</v>
+      </c>
+      <c r="C1465" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1465" s="1">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1466">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="2">
+        <v>73250</v>
+      </c>
+      <c r="C1466" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D1466" s="1">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1467">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="2">
+        <v>73300</v>
+      </c>
+      <c r="C1467" s="1">
+        <f t="shared" ref="C1467:C1530" si="26">C1466</f>
+        <v>-1</v>
+      </c>
+      <c r="D1467" s="1">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1468">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="2">
+        <v>73350</v>
+      </c>
+      <c r="C1468" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1468" s="1">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1469">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="2">
+        <v>73400</v>
+      </c>
+      <c r="C1469" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1469" s="1">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1470">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="2">
+        <v>73450</v>
+      </c>
+      <c r="C1470" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1470" s="1">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1471">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="2">
+        <v>73500</v>
+      </c>
+      <c r="C1471" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1471" s="1">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1472">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="2">
+        <v>73550</v>
+      </c>
+      <c r="C1472" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1472" s="1">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1473">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="2">
+        <v>73600</v>
+      </c>
+      <c r="C1473" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1473" s="1">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1474">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="2">
+        <v>73650</v>
+      </c>
+      <c r="C1474" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1474" s="1">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1475">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="2">
+        <v>73700</v>
+      </c>
+      <c r="C1475" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1475" s="1">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1476">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="2">
+        <v>73750</v>
+      </c>
+      <c r="C1476" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1476" s="1">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1477">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="2">
+        <v>73800</v>
+      </c>
+      <c r="C1477" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1477" s="1">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1478">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="2">
+        <v>73850</v>
+      </c>
+      <c r="C1478" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1478" s="1">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1479">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="2">
+        <v>73900</v>
+      </c>
+      <c r="C1479" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1479" s="1">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1480">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="2">
+        <v>73950</v>
+      </c>
+      <c r="C1480" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1480" s="1">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1481">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="2">
+        <v>74000</v>
+      </c>
+      <c r="C1481" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1481" s="1">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1482">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="2">
+        <v>74050</v>
+      </c>
+      <c r="C1482" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1482" s="1">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1483">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="2">
+        <v>74100</v>
+      </c>
+      <c r="C1483" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1483" s="1">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1484">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="2">
+        <v>74150</v>
+      </c>
+      <c r="C1484" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1484" s="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1485">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="2">
+        <v>74200</v>
+      </c>
+      <c r="C1485" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1485" s="1">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1486">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="2">
+        <v>74250</v>
+      </c>
+      <c r="C1486" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1486" s="1">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1487">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="2">
+        <v>74300</v>
+      </c>
+      <c r="C1487" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1487" s="1">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1488">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="2">
+        <v>74350</v>
+      </c>
+      <c r="C1488" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1488" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1489">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2">
+        <v>74400</v>
+      </c>
+      <c r="C1489" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1489" s="1">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1490">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2">
+        <v>74450</v>
+      </c>
+      <c r="C1490" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1490" s="1">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1491">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2">
+        <v>74500</v>
+      </c>
+      <c r="C1491" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1491" s="1">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1492">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2">
+        <v>74550</v>
+      </c>
+      <c r="C1492" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1492" s="1">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1493">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2">
+        <v>74600</v>
+      </c>
+      <c r="C1493" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1493" s="1">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1494">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2">
+        <v>74650</v>
+      </c>
+      <c r="C1494" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1494" s="1">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1495">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2">
+        <v>74700</v>
+      </c>
+      <c r="C1495" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1495" s="1">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1496">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="2">
+        <v>74750</v>
+      </c>
+      <c r="C1496" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1496" s="1">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1497">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="2">
+        <v>74800</v>
+      </c>
+      <c r="C1497" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1497" s="1">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1498">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="2">
+        <v>74850</v>
+      </c>
+      <c r="C1498" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1498" s="1">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1499">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="2">
+        <v>74900</v>
+      </c>
+      <c r="C1499" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1499" s="1">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1500">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="2">
+        <v>74950</v>
+      </c>
+      <c r="C1500" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1500" s="1">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1501">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="2">
+        <v>75000</v>
+      </c>
+      <c r="C1501" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1501" s="1">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1502">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="2">
+        <v>75050</v>
+      </c>
+      <c r="C1502" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1502" s="1">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1503">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="2">
+        <v>75100</v>
+      </c>
+      <c r="C1503" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1503" s="1">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1504">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="2">
+        <v>75150</v>
+      </c>
+      <c r="C1504" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1504" s="1">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1505">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="2">
+        <v>75200</v>
+      </c>
+      <c r="C1505" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1505" s="1">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1506">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="2">
+        <v>75250</v>
+      </c>
+      <c r="C1506" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1506" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1507">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="2">
+        <v>75300</v>
+      </c>
+      <c r="C1507" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1507" s="1">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1508">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="2">
+        <v>75350</v>
+      </c>
+      <c r="C1508" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1508" s="1">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1509">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="2">
+        <v>75400</v>
+      </c>
+      <c r="C1509" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1509" s="1">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1510">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="2">
+        <v>75450</v>
+      </c>
+      <c r="C1510" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1510" s="1">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1511">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="2">
+        <v>75500</v>
+      </c>
+      <c r="C1511" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1511" s="1">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1512">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="2">
+        <v>75550</v>
+      </c>
+      <c r="C1512" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1512" s="1">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1513">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="2">
+        <v>75600</v>
+      </c>
+      <c r="C1513" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1513" s="1">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1514">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="2">
+        <v>75650</v>
+      </c>
+      <c r="C1514" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1514" s="1">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1515">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="2">
+        <v>75700</v>
+      </c>
+      <c r="C1515" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1515" s="1">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1516">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="2">
+        <v>75750</v>
+      </c>
+      <c r="C1516" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1516" s="1">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1517">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="2">
+        <v>75800</v>
+      </c>
+      <c r="C1517" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1517" s="1">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1518">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="2">
+        <v>75850</v>
+      </c>
+      <c r="C1518" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1518" s="1">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1519">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="2">
+        <v>75900</v>
+      </c>
+      <c r="C1519" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1519" s="1">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1520">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="2">
+        <v>75950</v>
+      </c>
+      <c r="C1520" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1520" s="1">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1521">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="2">
+        <v>76000</v>
+      </c>
+      <c r="C1521" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1521" s="1">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1522">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="2">
+        <v>76050</v>
+      </c>
+      <c r="C1522" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1522" s="1">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1523">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="2">
+        <v>76100</v>
+      </c>
+      <c r="C1523" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1523" s="1">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1524">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="2">
+        <v>76150</v>
+      </c>
+      <c r="C1524" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1524" s="1">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1525">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="2">
+        <v>76200</v>
+      </c>
+      <c r="C1525" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1525" s="1">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1526">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="2">
+        <v>76250</v>
+      </c>
+      <c r="C1526" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1526" s="1">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1527">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="2">
+        <v>76300</v>
+      </c>
+      <c r="C1527" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1527" s="1">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1528">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="2">
+        <v>76350</v>
+      </c>
+      <c r="C1528" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1528" s="1">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1529">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="2">
+        <v>76400</v>
+      </c>
+      <c r="C1529" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1529" s="1">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1530">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="2">
+        <v>76450</v>
+      </c>
+      <c r="C1530" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="D1530" s="1">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1531">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="2">
+        <v>76500</v>
+      </c>
+      <c r="C1531" s="1">
+        <f t="shared" ref="C1531:C1594" si="27">C1530</f>
+        <v>-1</v>
+      </c>
+      <c r="D1531" s="1">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1532">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="2">
+        <v>76550</v>
+      </c>
+      <c r="C1532" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1532" s="1">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1533">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="2">
+        <v>76600</v>
+      </c>
+      <c r="C1533" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1533" s="1">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1534">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="2">
+        <v>76650</v>
+      </c>
+      <c r="C1534" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1534" s="1">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1535">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="2">
+        <v>76700</v>
+      </c>
+      <c r="C1535" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1535" s="1">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1536">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="2">
+        <v>76750</v>
+      </c>
+      <c r="C1536" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1536" s="1">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1537">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="2">
+        <v>76800</v>
+      </c>
+      <c r="C1537" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1537" s="1">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1538">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="2">
+        <v>76850</v>
+      </c>
+      <c r="C1538" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1538" s="1">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1539">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="2">
+        <v>76900</v>
+      </c>
+      <c r="C1539" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1539" s="1">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1540">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="2">
+        <v>76950</v>
+      </c>
+      <c r="C1540" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1540" s="1">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1541">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="2">
+        <v>77000</v>
+      </c>
+      <c r="C1541" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1541" s="1">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1542">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="2">
+        <v>77050</v>
+      </c>
+      <c r="C1542" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1542" s="1">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1543">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="2">
+        <v>77100</v>
+      </c>
+      <c r="C1543" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1543" s="1">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1544">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="2">
+        <v>77150</v>
+      </c>
+      <c r="C1544" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1544" s="1">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1545">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="2">
+        <v>77200</v>
+      </c>
+      <c r="C1545" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1545" s="1">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1546">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="2">
+        <v>77250</v>
+      </c>
+      <c r="C1546" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1546" s="1">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1547">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="2">
+        <v>77300</v>
+      </c>
+      <c r="C1547" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1547" s="1">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1548">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="2">
+        <v>77350</v>
+      </c>
+      <c r="C1548" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1548" s="1">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1549">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="2">
+        <v>77400</v>
+      </c>
+      <c r="C1549" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1549" s="1">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1550">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="2">
+        <v>77450</v>
+      </c>
+      <c r="C1550" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1550" s="1">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1551">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="2">
+        <v>77500</v>
+      </c>
+      <c r="C1551" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1551" s="1">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1552">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="2">
+        <v>77550</v>
+      </c>
+      <c r="C1552" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1552" s="1">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1553">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="2">
+        <v>77600</v>
+      </c>
+      <c r="C1553" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1553" s="1">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1554">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="2">
+        <v>77650</v>
+      </c>
+      <c r="C1554" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1554" s="1">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1555">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="2">
+        <v>77700</v>
+      </c>
+      <c r="C1555" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1555" s="1">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1556">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="2">
+        <v>77750</v>
+      </c>
+      <c r="C1556" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1556" s="1">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1557">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="2">
+        <v>77800</v>
+      </c>
+      <c r="C1557" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1557" s="1">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1558">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="2">
+        <v>77850</v>
+      </c>
+      <c r="C1558" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1558" s="1">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1559">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="2">
+        <v>77900</v>
+      </c>
+      <c r="C1559" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1559" s="1">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1560">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="2">
+        <v>77950</v>
+      </c>
+      <c r="C1560" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1560" s="1">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1561">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="2">
+        <v>78000</v>
+      </c>
+      <c r="C1561" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1561" s="1">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1562">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="2">
+        <v>78050</v>
+      </c>
+      <c r="C1562" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1562" s="1">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1563">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="2">
+        <v>78100</v>
+      </c>
+      <c r="C1563" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1563" s="1">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1564">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="2">
+        <v>78150</v>
+      </c>
+      <c r="C1564" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1564" s="1">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1565">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="2">
+        <v>78200</v>
+      </c>
+      <c r="C1565" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1565" s="1">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1566">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="2">
+        <v>78250</v>
+      </c>
+      <c r="C1566" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1566" s="1">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1567">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="2">
+        <v>78300</v>
+      </c>
+      <c r="C1567" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1567" s="1">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1568">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="2">
+        <v>78350</v>
+      </c>
+      <c r="C1568" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1568" s="1">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1569">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="2">
+        <v>78400</v>
+      </c>
+      <c r="C1569" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1569" s="1">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1570">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="2">
+        <v>78450</v>
+      </c>
+      <c r="C1570" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1570" s="1">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1571">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="2">
+        <v>78500</v>
+      </c>
+      <c r="C1571" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1571" s="1">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1572">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="2">
+        <v>78550</v>
+      </c>
+      <c r="C1572" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1572" s="1">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1573">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="2">
+        <v>78600</v>
+      </c>
+      <c r="C1573" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1573" s="1">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1574">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="2">
+        <v>78650</v>
+      </c>
+      <c r="C1574" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1574" s="1">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1575">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="2">
+        <v>78700</v>
+      </c>
+      <c r="C1575" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1575" s="1">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1576">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="2">
+        <v>78750</v>
+      </c>
+      <c r="C1576" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1576" s="1">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1577">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="2">
+        <v>78800</v>
+      </c>
+      <c r="C1577" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1577" s="1">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1578">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C1578" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1578" s="1">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1579">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="2">
+        <v>78900</v>
+      </c>
+      <c r="C1579" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1579" s="1">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1580">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="2">
+        <v>78950</v>
+      </c>
+      <c r="C1580" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1580" s="1">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1581">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="2">
+        <v>79000</v>
+      </c>
+      <c r="C1581" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1581" s="1">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1582">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="2">
+        <v>79050</v>
+      </c>
+      <c r="C1582" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1582" s="1">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1583">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="2">
+        <v>79100</v>
+      </c>
+      <c r="C1583" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1583" s="1">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1584">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="2">
+        <v>79150</v>
+      </c>
+      <c r="C1584" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1584" s="1">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1585">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="2">
+        <v>79200</v>
+      </c>
+      <c r="C1585" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1585" s="1">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1586">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="2">
+        <v>79250</v>
+      </c>
+      <c r="C1586" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1586" s="1">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1587">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="2">
+        <v>79300</v>
+      </c>
+      <c r="C1587" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1587" s="1">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1588">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="2">
+        <v>79350</v>
+      </c>
+      <c r="C1588" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1588" s="1">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1589">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="2">
+        <v>79400</v>
+      </c>
+      <c r="C1589" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1589" s="1">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1590">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="2">
+        <v>79450</v>
+      </c>
+      <c r="C1590" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1590" s="1">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1591">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="2">
+        <v>79500</v>
+      </c>
+      <c r="C1591" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1591" s="1">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1592">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="2">
+        <v>79550</v>
+      </c>
+      <c r="C1592" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1592" s="1">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1593">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="2">
+        <v>79600</v>
+      </c>
+      <c r="C1593" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1593" s="1">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1594">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="2">
+        <v>79650</v>
+      </c>
+      <c r="C1594" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="D1594" s="1">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1595">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="2">
+        <v>79700</v>
+      </c>
+      <c r="C1595" s="1">
+        <f t="shared" ref="C1595:C1658" si="28">C1594</f>
+        <v>-1</v>
+      </c>
+      <c r="D1595" s="1">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1596">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="2">
+        <v>79750</v>
+      </c>
+      <c r="C1596" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1596" s="1">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1597">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="2">
+        <v>79800</v>
+      </c>
+      <c r="C1597" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1597" s="1">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1598">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="2">
+        <v>79850</v>
+      </c>
+      <c r="C1598" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1598" s="1">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1599">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="2">
+        <v>79900</v>
+      </c>
+      <c r="C1599" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1599" s="1">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1600">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="2">
+        <v>79950</v>
+      </c>
+      <c r="C1600" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1600" s="1">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1601">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="2">
+        <v>80000</v>
+      </c>
+      <c r="C1601" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1601" s="1">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1602">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="2">
+        <v>80050</v>
+      </c>
+      <c r="C1602" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1602" s="1">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1603">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="2">
+        <v>80100</v>
+      </c>
+      <c r="C1603" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1603" s="1">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1604">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="2">
+        <v>80150</v>
+      </c>
+      <c r="C1604" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1604" s="1">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1605">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="2">
+        <v>80200</v>
+      </c>
+      <c r="C1605" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1605" s="1">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1606">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="2">
+        <v>80250</v>
+      </c>
+      <c r="C1606" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1606" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1607">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="2">
+        <v>80300</v>
+      </c>
+      <c r="C1607" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1607" s="1">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1608">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="2">
+        <v>80350</v>
+      </c>
+      <c r="C1608" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1608" s="1">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1609">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="2">
+        <v>80400</v>
+      </c>
+      <c r="C1609" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1609" s="1">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1610">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="2">
+        <v>80450</v>
+      </c>
+      <c r="C1610" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1610" s="1">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1611">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="2">
+        <v>80500</v>
+      </c>
+      <c r="C1611" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1611" s="1">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1612">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="2">
+        <v>80550</v>
+      </c>
+      <c r="C1612" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1612" s="1">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1613">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="2">
+        <v>80600</v>
+      </c>
+      <c r="C1613" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1613" s="1">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1614">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="2">
+        <v>80650</v>
+      </c>
+      <c r="C1614" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1614" s="1">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1615">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="2">
+        <v>80700</v>
+      </c>
+      <c r="C1615" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1615" s="1">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1616">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="2">
+        <v>80750</v>
+      </c>
+      <c r="C1616" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1616" s="1">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1617">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="2">
+        <v>80800</v>
+      </c>
+      <c r="C1617" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1617" s="1">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1618">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="2">
+        <v>80850</v>
+      </c>
+      <c r="C1618" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1618" s="1">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1619">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="2">
+        <v>80900</v>
+      </c>
+      <c r="C1619" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1619" s="1">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1620">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="2">
+        <v>80950</v>
+      </c>
+      <c r="C1620" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1620" s="1">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1621">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="2">
+        <v>81000</v>
+      </c>
+      <c r="C1621" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1621" s="1">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1622">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="2">
+        <v>81050</v>
+      </c>
+      <c r="C1622" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1622" s="1">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1623">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="2">
+        <v>81100</v>
+      </c>
+      <c r="C1623" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1623" s="1">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1624">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="2">
+        <v>81150</v>
+      </c>
+      <c r="C1624" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1624" s="1">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1625">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="2">
+        <v>81200</v>
+      </c>
+      <c r="C1625" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1625" s="1">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1626">
+        <v>1624</v>
+      </c>
+      <c r="B1626" s="2">
+        <v>81250</v>
+      </c>
+      <c r="C1626" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1626" s="1">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1627">
+        <v>1625</v>
+      </c>
+      <c r="B1627" s="2">
+        <v>81300</v>
+      </c>
+      <c r="C1627" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1627" s="1">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1628">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="2">
+        <v>81350</v>
+      </c>
+      <c r="C1628" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1628" s="1">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1629">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="2">
+        <v>81400</v>
+      </c>
+      <c r="C1629" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1629" s="1">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1630">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="2">
+        <v>81450</v>
+      </c>
+      <c r="C1630" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1630" s="1">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1631">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="2">
+        <v>81500</v>
+      </c>
+      <c r="C1631" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1631" s="1">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1632">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="2">
+        <v>81550</v>
+      </c>
+      <c r="C1632" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1632" s="1">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1633">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="2">
+        <v>81600</v>
+      </c>
+      <c r="C1633" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1633" s="1">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1634">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="2">
+        <v>81650</v>
+      </c>
+      <c r="C1634" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1634" s="1">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1635">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="2">
+        <v>81700</v>
+      </c>
+      <c r="C1635" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1635" s="1">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1636">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="2">
+        <v>81750</v>
+      </c>
+      <c r="C1636" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1636" s="1">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1637">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="2">
+        <v>81800</v>
+      </c>
+      <c r="C1637" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1637" s="1">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1638">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="2">
+        <v>81850</v>
+      </c>
+      <c r="C1638" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1638" s="1">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1639">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="2">
+        <v>81900</v>
+      </c>
+      <c r="C1639" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1639" s="1">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1640">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="2">
+        <v>81950</v>
+      </c>
+      <c r="C1640" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1640" s="1">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1641">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="2">
+        <v>82000</v>
+      </c>
+      <c r="C1641" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1641" s="1">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1642">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="2">
+        <v>82050</v>
+      </c>
+      <c r="C1642" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1642" s="1">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1643">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="2">
+        <v>82100</v>
+      </c>
+      <c r="C1643" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1643" s="1">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1644">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="2">
+        <v>82150</v>
+      </c>
+      <c r="C1644" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1644" s="1">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1645">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="2">
+        <v>82200</v>
+      </c>
+      <c r="C1645" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1645" s="1">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1646">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="2">
+        <v>82250</v>
+      </c>
+      <c r="C1646" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1646" s="1">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1647">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="2">
+        <v>82300</v>
+      </c>
+      <c r="C1647" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1647" s="1">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1648">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="2">
+        <v>82350</v>
+      </c>
+      <c r="C1648" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1648" s="1">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1649">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="2">
+        <v>82400</v>
+      </c>
+      <c r="C1649" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1649" s="1">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1650">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="2">
+        <v>82450</v>
+      </c>
+      <c r="C1650" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1650" s="1">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1651">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="2">
+        <v>82500</v>
+      </c>
+      <c r="C1651" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1651" s="1">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1652">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="2">
+        <v>82550</v>
+      </c>
+      <c r="C1652" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1652" s="1">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1653">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="2">
+        <v>82600</v>
+      </c>
+      <c r="C1653" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1653" s="1">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1654">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="2">
+        <v>82650</v>
+      </c>
+      <c r="C1654" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1654" s="1">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1655">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="2">
+        <v>82700</v>
+      </c>
+      <c r="C1655" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1655" s="1">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1656">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="2">
+        <v>82750</v>
+      </c>
+      <c r="C1656" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1656" s="1">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1657">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="2">
+        <v>82800</v>
+      </c>
+      <c r="C1657" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1657" s="1">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1658">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="2">
+        <v>82850</v>
+      </c>
+      <c r="C1658" s="1">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="D1658" s="1">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1659">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="2">
+        <v>82900</v>
+      </c>
+      <c r="C1659" s="1">
+        <f t="shared" ref="C1659:C1722" si="29">C1658</f>
+        <v>-1</v>
+      </c>
+      <c r="D1659" s="1">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1660">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="2">
+        <v>82950</v>
+      </c>
+      <c r="C1660" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1660" s="1">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1661">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="2">
+        <v>83000</v>
+      </c>
+      <c r="C1661" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1661" s="1">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1662">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="2">
+        <v>83050</v>
+      </c>
+      <c r="C1662" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1662" s="1">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1663">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="2">
+        <v>83100</v>
+      </c>
+      <c r="C1663" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1663" s="1">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1664">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="2">
+        <v>83150</v>
+      </c>
+      <c r="C1664" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1664" s="1">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1665">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="2">
+        <v>83200</v>
+      </c>
+      <c r="C1665" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1665" s="1">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1666">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="2">
+        <v>83250</v>
+      </c>
+      <c r="C1666" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1666" s="1">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1667">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="2">
+        <v>83300</v>
+      </c>
+      <c r="C1667" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1667" s="1">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1668">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="2">
+        <v>83350</v>
+      </c>
+      <c r="C1668" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1668" s="1">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1669">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="2">
+        <v>83400</v>
+      </c>
+      <c r="C1669" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1669" s="1">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1670">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="2">
+        <v>83450</v>
+      </c>
+      <c r="C1670" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1670" s="1">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1671">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="2">
+        <v>83500</v>
+      </c>
+      <c r="C1671" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1671" s="1">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1672">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="2">
+        <v>83550</v>
+      </c>
+      <c r="C1672" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1672" s="1">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1673">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="2">
+        <v>83600</v>
+      </c>
+      <c r="C1673" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1673" s="1">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1674">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="2">
+        <v>83650</v>
+      </c>
+      <c r="C1674" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1674" s="1">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1675">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="2">
+        <v>83700</v>
+      </c>
+      <c r="C1675" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1675" s="1">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1676">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="2">
+        <v>83750</v>
+      </c>
+      <c r="C1676" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1676" s="1">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1677">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="2">
+        <v>83800</v>
+      </c>
+      <c r="C1677" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1677" s="1">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1678">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="2">
+        <v>83850</v>
+      </c>
+      <c r="C1678" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1678" s="1">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1679">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="2">
+        <v>83900</v>
+      </c>
+      <c r="C1679" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1679" s="1">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1680">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="2">
+        <v>83950</v>
+      </c>
+      <c r="C1680" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1680" s="1">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1681">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="2">
+        <v>84000</v>
+      </c>
+      <c r="C1681" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1681" s="1">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1682">
+        <v>1680</v>
+      </c>
+      <c r="B1682" s="2">
+        <v>84050</v>
+      </c>
+      <c r="C1682" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1682" s="1">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1683">
+        <v>1681</v>
+      </c>
+      <c r="B1683" s="2">
+        <v>84100</v>
+      </c>
+      <c r="C1683" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1683" s="1">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1684">
+        <v>1682</v>
+      </c>
+      <c r="B1684" s="2">
+        <v>84150</v>
+      </c>
+      <c r="C1684" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1684" s="1">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1685">
+        <v>1683</v>
+      </c>
+      <c r="B1685" s="2">
+        <v>84200</v>
+      </c>
+      <c r="C1685" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1685" s="1">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1686">
+        <v>1684</v>
+      </c>
+      <c r="B1686" s="2">
+        <v>84250</v>
+      </c>
+      <c r="C1686" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1686" s="1">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1687">
+        <v>1685</v>
+      </c>
+      <c r="B1687" s="2">
+        <v>84300</v>
+      </c>
+      <c r="C1687" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1687" s="1">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1688">
+        <v>1686</v>
+      </c>
+      <c r="B1688" s="2">
+        <v>84350</v>
+      </c>
+      <c r="C1688" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1688" s="1">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1689">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="2">
+        <v>84400</v>
+      </c>
+      <c r="C1689" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1689" s="1">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1690">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="2">
+        <v>84450</v>
+      </c>
+      <c r="C1690" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1690" s="1">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1691">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="2">
+        <v>84500</v>
+      </c>
+      <c r="C1691" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1691" s="1">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1692">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="2">
+        <v>84550</v>
+      </c>
+      <c r="C1692" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1692" s="1">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1693">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="2">
+        <v>84600</v>
+      </c>
+      <c r="C1693" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1693" s="1">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1694">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="2">
+        <v>84650</v>
+      </c>
+      <c r="C1694" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1694" s="1">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1695">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="2">
+        <v>84700</v>
+      </c>
+      <c r="C1695" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1695" s="1">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1696">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="2">
+        <v>84750</v>
+      </c>
+      <c r="C1696" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1696" s="1">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1697">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="2">
+        <v>84800</v>
+      </c>
+      <c r="C1697" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1697" s="1">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1698">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="2">
+        <v>84850</v>
+      </c>
+      <c r="C1698" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1698" s="1">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1699">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="2">
+        <v>84900</v>
+      </c>
+      <c r="C1699" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1699" s="1">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1700">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="2">
+        <v>84950</v>
+      </c>
+      <c r="C1700" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1700" s="1">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1701">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="2">
+        <v>85000</v>
+      </c>
+      <c r="C1701" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1701" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1702">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="2">
+        <v>85050</v>
+      </c>
+      <c r="C1702" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1702" s="1">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1703">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="2">
+        <v>85100</v>
+      </c>
+      <c r="C1703" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1703" s="1">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1704">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="2">
+        <v>85150</v>
+      </c>
+      <c r="C1704" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1704" s="1">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1705">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="2">
+        <v>85200</v>
+      </c>
+      <c r="C1705" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1705" s="1">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1706">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="2">
+        <v>85250</v>
+      </c>
+      <c r="C1706" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1706" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1707">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="2">
+        <v>85300</v>
+      </c>
+      <c r="C1707" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1707" s="1">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1708">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="2">
+        <v>85350</v>
+      </c>
+      <c r="C1708" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1708" s="1">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1709">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="2">
+        <v>85400</v>
+      </c>
+      <c r="C1709" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1709" s="1">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1710">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="2">
+        <v>85450</v>
+      </c>
+      <c r="C1710" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1710" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1711">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="2">
+        <v>85500</v>
+      </c>
+      <c r="C1711" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1711" s="1">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1712">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="2">
+        <v>85550</v>
+      </c>
+      <c r="C1712" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1712" s="1">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1713">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="2">
+        <v>85600</v>
+      </c>
+      <c r="C1713" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1713" s="1">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1714">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="2">
+        <v>85650</v>
+      </c>
+      <c r="C1714" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1714" s="1">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1715">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="2">
+        <v>85700</v>
+      </c>
+      <c r="C1715" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1715" s="1">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1716">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="2">
+        <v>85750</v>
+      </c>
+      <c r="C1716" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1716" s="1">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1717">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="2">
+        <v>85800</v>
+      </c>
+      <c r="C1717" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1717" s="1">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1718">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="2">
+        <v>85850</v>
+      </c>
+      <c r="C1718" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1718" s="1">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1719">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="2">
+        <v>85900</v>
+      </c>
+      <c r="C1719" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1719" s="1">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1720">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="2">
+        <v>85950</v>
+      </c>
+      <c r="C1720" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1720" s="1">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1721">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="2">
+        <v>86000</v>
+      </c>
+      <c r="C1721" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1721" s="1">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1722">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="2">
+        <v>86050</v>
+      </c>
+      <c r="C1722" s="1">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="D1722" s="1">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1723">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="2">
+        <v>86100</v>
+      </c>
+      <c r="C1723" s="1">
+        <f t="shared" ref="C1723:C1786" si="30">C1722</f>
+        <v>-1</v>
+      </c>
+      <c r="D1723" s="1">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1724">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="2">
+        <v>86150</v>
+      </c>
+      <c r="C1724" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1724" s="1">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1725">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="2">
+        <v>86200</v>
+      </c>
+      <c r="C1725" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1725" s="1">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1726">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="2">
+        <v>86250</v>
+      </c>
+      <c r="C1726" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1726" s="1">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1727">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="2">
+        <v>86300</v>
+      </c>
+      <c r="C1727" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1727" s="1">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1728">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="2">
+        <v>86350</v>
+      </c>
+      <c r="C1728" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1728" s="1">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1729">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="2">
+        <v>86400</v>
+      </c>
+      <c r="C1729" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1729" s="1">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1730">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="2">
+        <v>86450</v>
+      </c>
+      <c r="C1730" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1730" s="1">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1731">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="2">
+        <v>86500</v>
+      </c>
+      <c r="C1731" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1731" s="1">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1732">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="2">
+        <v>86550</v>
+      </c>
+      <c r="C1732" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1732" s="1">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1733">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="2">
+        <v>86600</v>
+      </c>
+      <c r="C1733" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1733" s="1">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1734">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="2">
+        <v>86650</v>
+      </c>
+      <c r="C1734" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1734" s="1">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1735">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="2">
+        <v>86700</v>
+      </c>
+      <c r="C1735" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1735" s="1">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1736">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="2">
+        <v>86750</v>
+      </c>
+      <c r="C1736" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1736" s="1">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1737">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="2">
+        <v>86800</v>
+      </c>
+      <c r="C1737" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1737" s="1">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1738">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="2">
+        <v>86850</v>
+      </c>
+      <c r="C1738" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1738" s="1">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1739">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="2">
+        <v>86900</v>
+      </c>
+      <c r="C1739" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1739" s="1">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1740">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="2">
+        <v>86950</v>
+      </c>
+      <c r="C1740" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1740" s="1">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1741">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="2">
+        <v>87000</v>
+      </c>
+      <c r="C1741" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1741" s="1">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1742">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="2">
+        <v>87050</v>
+      </c>
+      <c r="C1742" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1742" s="1">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1743">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="2">
+        <v>87100</v>
+      </c>
+      <c r="C1743" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1743" s="1">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1744">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="2">
+        <v>87150</v>
+      </c>
+      <c r="C1744" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1744" s="1">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1745">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="2">
+        <v>87200</v>
+      </c>
+      <c r="C1745" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1745" s="1">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1746">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="2">
+        <v>87250</v>
+      </c>
+      <c r="C1746" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1746" s="1">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1747">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="2">
+        <v>87300</v>
+      </c>
+      <c r="C1747" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1747" s="1">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1748">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="2">
+        <v>87350</v>
+      </c>
+      <c r="C1748" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1748" s="1">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1749">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="2">
+        <v>87400</v>
+      </c>
+      <c r="C1749" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1749" s="1">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1750">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="2">
+        <v>87450</v>
+      </c>
+      <c r="C1750" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1750" s="1">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1751">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="2">
+        <v>87500</v>
+      </c>
+      <c r="C1751" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1751" s="1">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1752">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="2">
+        <v>87550</v>
+      </c>
+      <c r="C1752" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1752" s="1">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1753">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="2">
+        <v>87600</v>
+      </c>
+      <c r="C1753" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1753" s="1">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1754">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="2">
+        <v>87650</v>
+      </c>
+      <c r="C1754" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1754" s="1">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1755">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="2">
+        <v>87700</v>
+      </c>
+      <c r="C1755" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1755" s="1">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1756">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="2">
+        <v>87750</v>
+      </c>
+      <c r="C1756" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1756" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1757">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="2">
+        <v>87800</v>
+      </c>
+      <c r="C1757" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1757" s="1">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1758">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="2">
+        <v>87850</v>
+      </c>
+      <c r="C1758" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1758" s="1">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1759">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="2">
+        <v>87900</v>
+      </c>
+      <c r="C1759" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1759" s="1">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1760">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="2">
+        <v>87950</v>
+      </c>
+      <c r="C1760" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1760" s="1">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1761">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="2">
+        <v>88000</v>
+      </c>
+      <c r="C1761" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1761" s="1">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1762">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="2">
+        <v>88050</v>
+      </c>
+      <c r="C1762" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1762" s="1">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1763">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="2">
+        <v>88100</v>
+      </c>
+      <c r="C1763" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1763" s="1">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1764">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="2">
+        <v>88150</v>
+      </c>
+      <c r="C1764" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1764" s="1">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1765">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="2">
+        <v>88200</v>
+      </c>
+      <c r="C1765" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1765" s="1">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1766">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="2">
+        <v>88250</v>
+      </c>
+      <c r="C1766" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1766" s="1">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1767">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="2">
+        <v>88300</v>
+      </c>
+      <c r="C1767" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1767" s="1">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1768">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="2">
+        <v>88350</v>
+      </c>
+      <c r="C1768" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1768" s="1">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1769">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="2">
+        <v>88400</v>
+      </c>
+      <c r="C1769" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1769" s="1">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1770">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="2">
+        <v>88450</v>
+      </c>
+      <c r="C1770" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1770" s="1">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1771">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="2">
+        <v>88500</v>
+      </c>
+      <c r="C1771" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1771" s="1">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1772">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="2">
+        <v>88550</v>
+      </c>
+      <c r="C1772" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1772" s="1">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1773">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="2">
+        <v>88600</v>
+      </c>
+      <c r="C1773" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1773" s="1">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1774">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="2">
+        <v>88650</v>
+      </c>
+      <c r="C1774" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1774" s="1">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1775">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="2">
+        <v>88700</v>
+      </c>
+      <c r="C1775" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1775" s="1">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1776">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="2">
+        <v>88750</v>
+      </c>
+      <c r="C1776" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1776" s="1">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1777">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="2">
+        <v>88800</v>
+      </c>
+      <c r="C1777" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1777" s="1">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1778">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="2">
+        <v>88850</v>
+      </c>
+      <c r="C1778" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1778" s="1">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1779">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="2">
+        <v>88900</v>
+      </c>
+      <c r="C1779" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1779" s="1">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1780">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="2">
+        <v>88950</v>
+      </c>
+      <c r="C1780" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1780" s="1">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1781">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="2">
+        <v>89000</v>
+      </c>
+      <c r="C1781" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1781" s="1">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1782">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="2">
+        <v>89050</v>
+      </c>
+      <c r="C1782" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1782" s="1">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1783">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="2">
+        <v>89100</v>
+      </c>
+      <c r="C1783" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1783" s="1">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1784">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="2">
+        <v>89150</v>
+      </c>
+      <c r="C1784" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1784" s="1">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1785">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="2">
+        <v>89200</v>
+      </c>
+      <c r="C1785" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1785" s="1">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1786">
+        <v>1784</v>
+      </c>
+      <c r="B1786" s="2">
+        <v>89250</v>
+      </c>
+      <c r="C1786" s="1">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="D1786" s="1">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1787">
+        <v>1785</v>
+      </c>
+      <c r="B1787" s="2">
+        <v>89300</v>
+      </c>
+      <c r="C1787" s="1">
+        <f t="shared" ref="C1787:C1850" si="31">C1786</f>
+        <v>-1</v>
+      </c>
+      <c r="D1787" s="1">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1788">
+        <v>1786</v>
+      </c>
+      <c r="B1788" s="2">
+        <v>89350</v>
+      </c>
+      <c r="C1788" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1788" s="1">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1789">
+        <v>1787</v>
+      </c>
+      <c r="B1789" s="2">
+        <v>89400</v>
+      </c>
+      <c r="C1789" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1789" s="1">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1790">
+        <v>1788</v>
+      </c>
+      <c r="B1790" s="2">
+        <v>89450</v>
+      </c>
+      <c r="C1790" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1790" s="1">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1791">
+        <v>1789</v>
+      </c>
+      <c r="B1791" s="2">
+        <v>89500</v>
+      </c>
+      <c r="C1791" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1791" s="1">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1792">
+        <v>1790</v>
+      </c>
+      <c r="B1792" s="2">
+        <v>89550</v>
+      </c>
+      <c r="C1792" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1792" s="1">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1793">
+        <v>1791</v>
+      </c>
+      <c r="B1793" s="2">
+        <v>89600</v>
+      </c>
+      <c r="C1793" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1793" s="1">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1794">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="2">
+        <v>89650</v>
+      </c>
+      <c r="C1794" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1794" s="1">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1795">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="2">
+        <v>89700</v>
+      </c>
+      <c r="C1795" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1795" s="1">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1796">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="2">
+        <v>89750</v>
+      </c>
+      <c r="C1796" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1796" s="1">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1797">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="2">
+        <v>89800</v>
+      </c>
+      <c r="C1797" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1797" s="1">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1798">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="2">
+        <v>89850</v>
+      </c>
+      <c r="C1798" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1798" s="1">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1799">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="2">
+        <v>89900</v>
+      </c>
+      <c r="C1799" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1799" s="1">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1800">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="2">
+        <v>89950</v>
+      </c>
+      <c r="C1800" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1800" s="1">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1801">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="2">
+        <v>90000</v>
+      </c>
+      <c r="C1801" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1801" s="1">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1802">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="2">
+        <v>90050</v>
+      </c>
+      <c r="C1802" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1802" s="1">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1803">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="2">
+        <v>90100</v>
+      </c>
+      <c r="C1803" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1803" s="1">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1804">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="2">
+        <v>90150</v>
+      </c>
+      <c r="C1804" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1804" s="1">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1805">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="2">
+        <v>90200</v>
+      </c>
+      <c r="C1805" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1805" s="1">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1806">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="2">
+        <v>90250</v>
+      </c>
+      <c r="C1806" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1806" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1807">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="2">
+        <v>90300</v>
+      </c>
+      <c r="C1807" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1807" s="1">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1808">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="2">
+        <v>90350</v>
+      </c>
+      <c r="C1808" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1808" s="1">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1809">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="2">
+        <v>90400</v>
+      </c>
+      <c r="C1809" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1809" s="1">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1810">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="2">
+        <v>90450</v>
+      </c>
+      <c r="C1810" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1810" s="1">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1811">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="2">
+        <v>90500</v>
+      </c>
+      <c r="C1811" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1811" s="1">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1812">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="2">
+        <v>90550</v>
+      </c>
+      <c r="C1812" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1812" s="1">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1813">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="2">
+        <v>90600</v>
+      </c>
+      <c r="C1813" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1813" s="1">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1814">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="2">
+        <v>90650</v>
+      </c>
+      <c r="C1814" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1814" s="1">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1815">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="2">
+        <v>90700</v>
+      </c>
+      <c r="C1815" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1815" s="1">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1816">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="2">
+        <v>90750</v>
+      </c>
+      <c r="C1816" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1816" s="1">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1817">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="2">
+        <v>90800</v>
+      </c>
+      <c r="C1817" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1817" s="1">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1818">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="2">
+        <v>90850</v>
+      </c>
+      <c r="C1818" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1818" s="1">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1819">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="2">
+        <v>90900</v>
+      </c>
+      <c r="C1819" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1819" s="1">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1820">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="2">
+        <v>90950</v>
+      </c>
+      <c r="C1820" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1820" s="1">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1821">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="2">
+        <v>91000</v>
+      </c>
+      <c r="C1821" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1821" s="1">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1822">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="2">
+        <v>91050</v>
+      </c>
+      <c r="C1822" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1822" s="1">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1823">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="2">
+        <v>91100</v>
+      </c>
+      <c r="C1823" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1823" s="1">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1824">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="2">
+        <v>91150</v>
+      </c>
+      <c r="C1824" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1824" s="1">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1825">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="2">
+        <v>91200</v>
+      </c>
+      <c r="C1825" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1825" s="1">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1826">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="2">
+        <v>91250</v>
+      </c>
+      <c r="C1826" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1826" s="1">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1827">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="2">
+        <v>91300</v>
+      </c>
+      <c r="C1827" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1827" s="1">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1828">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="2">
+        <v>91350</v>
+      </c>
+      <c r="C1828" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1828" s="1">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1829">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="2">
+        <v>91400</v>
+      </c>
+      <c r="C1829" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1829" s="1">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1830">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="2">
+        <v>91450</v>
+      </c>
+      <c r="C1830" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1830" s="1">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1831">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="2">
+        <v>91500</v>
+      </c>
+      <c r="C1831" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1831" s="1">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1832">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="2">
+        <v>91550</v>
+      </c>
+      <c r="C1832" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1832" s="1">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1833">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="2">
+        <v>91600</v>
+      </c>
+      <c r="C1833" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1833" s="1">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1834">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="2">
+        <v>91650</v>
+      </c>
+      <c r="C1834" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1834" s="1">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1835">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="2">
+        <v>91700</v>
+      </c>
+      <c r="C1835" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1835" s="1">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1836">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="2">
+        <v>91750</v>
+      </c>
+      <c r="C1836" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1836" s="1">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1837">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="2">
+        <v>91800</v>
+      </c>
+      <c r="C1837" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1837" s="1">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1838">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="2">
+        <v>91850</v>
+      </c>
+      <c r="C1838" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1838" s="1">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1839">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="2">
+        <v>91900</v>
+      </c>
+      <c r="C1839" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1839" s="1">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1840">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="2">
+        <v>91950</v>
+      </c>
+      <c r="C1840" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1840" s="1">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1841">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="2">
+        <v>92000</v>
+      </c>
+      <c r="C1841" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1841" s="1">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1842">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="2">
+        <v>92050</v>
+      </c>
+      <c r="C1842" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1842" s="1">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1843">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="2">
+        <v>92100</v>
+      </c>
+      <c r="C1843" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1843" s="1">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1844">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="2">
+        <v>92150</v>
+      </c>
+      <c r="C1844" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1844" s="1">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1845">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="2">
+        <v>92200</v>
+      </c>
+      <c r="C1845" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1845" s="1">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1846">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="2">
+        <v>92250</v>
+      </c>
+      <c r="C1846" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1846" s="1">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1847">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="2">
+        <v>92300</v>
+      </c>
+      <c r="C1847" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1847" s="1">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1848">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="2">
+        <v>92350</v>
+      </c>
+      <c r="C1848" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1848" s="1">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1849">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="2">
+        <v>92400</v>
+      </c>
+      <c r="C1849" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1849" s="1">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1850">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="2">
+        <v>92450</v>
+      </c>
+      <c r="C1850" s="1">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="D1850" s="1">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1851">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="2">
+        <v>92500</v>
+      </c>
+      <c r="C1851" s="1">
+        <f t="shared" ref="C1851:C1914" si="32">C1850</f>
+        <v>-1</v>
+      </c>
+      <c r="D1851" s="1">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1852">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="2">
+        <v>92550</v>
+      </c>
+      <c r="C1852" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1852" s="1">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1853">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="2">
+        <v>92600</v>
+      </c>
+      <c r="C1853" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1853" s="1">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1854">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="2">
+        <v>92650</v>
+      </c>
+      <c r="C1854" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1854" s="1">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1855">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="2">
+        <v>92700</v>
+      </c>
+      <c r="C1855" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1855" s="1">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1856">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="2">
+        <v>92750</v>
+      </c>
+      <c r="C1856" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1856" s="1">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1857">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="2">
+        <v>92800</v>
+      </c>
+      <c r="C1857" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1857" s="1">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1858">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="2">
+        <v>92850</v>
+      </c>
+      <c r="C1858" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1858" s="1">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1859">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="2">
+        <v>92900</v>
+      </c>
+      <c r="C1859" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1859" s="1">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1860">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="2">
+        <v>92950</v>
+      </c>
+      <c r="C1860" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1860" s="1">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1861">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="2">
+        <v>93000</v>
+      </c>
+      <c r="C1861" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1861" s="1">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1862">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="2">
+        <v>93050</v>
+      </c>
+      <c r="C1862" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1862" s="1">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1863">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="2">
+        <v>93100</v>
+      </c>
+      <c r="C1863" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1863" s="1">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1864">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="2">
+        <v>93150</v>
+      </c>
+      <c r="C1864" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1864" s="1">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1865">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="2">
+        <v>93200</v>
+      </c>
+      <c r="C1865" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1865" s="1">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1866">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="2">
+        <v>93250</v>
+      </c>
+      <c r="C1866" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1866" s="1">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1867">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="2">
+        <v>93300</v>
+      </c>
+      <c r="C1867" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1867" s="1">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1868">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="2">
+        <v>93350</v>
+      </c>
+      <c r="C1868" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1868" s="1">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1869">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="2">
+        <v>93400</v>
+      </c>
+      <c r="C1869" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1869" s="1">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1870">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="2">
+        <v>93450</v>
+      </c>
+      <c r="C1870" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1870" s="1">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1871">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="2">
+        <v>93500</v>
+      </c>
+      <c r="C1871" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1871" s="1">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1872">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="2">
+        <v>93550</v>
+      </c>
+      <c r="C1872" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1872" s="1">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1873">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="2">
+        <v>93600</v>
+      </c>
+      <c r="C1873" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1873" s="1">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1874">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="2">
+        <v>93650</v>
+      </c>
+      <c r="C1874" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1874" s="1">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1875">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="2">
+        <v>93700</v>
+      </c>
+      <c r="C1875" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1875" s="1">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1876">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="2">
+        <v>93750</v>
+      </c>
+      <c r="C1876" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1876" s="1">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1877">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="2">
+        <v>93800</v>
+      </c>
+      <c r="C1877" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1877" s="1">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1878">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="2">
+        <v>93850</v>
+      </c>
+      <c r="C1878" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1878" s="1">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1879">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="2">
+        <v>93900</v>
+      </c>
+      <c r="C1879" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1879" s="1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1880">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="2">
+        <v>93950</v>
+      </c>
+      <c r="C1880" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1880" s="1">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1881">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="2">
+        <v>94000</v>
+      </c>
+      <c r="C1881" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1881" s="1">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1882">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="2">
+        <v>94050</v>
+      </c>
+      <c r="C1882" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1882" s="1">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1883">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="2">
+        <v>94100</v>
+      </c>
+      <c r="C1883" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1883" s="1">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1884">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="2">
+        <v>94150</v>
+      </c>
+      <c r="C1884" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1884" s="1">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1885">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="2">
+        <v>94200</v>
+      </c>
+      <c r="C1885" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1885" s="1">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1886">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="2">
+        <v>94250</v>
+      </c>
+      <c r="C1886" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1886" s="1">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1887">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="2">
+        <v>94300</v>
+      </c>
+      <c r="C1887" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1887" s="1">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1888">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="2">
+        <v>94350</v>
+      </c>
+      <c r="C1888" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1888" s="1">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1889">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="2">
+        <v>94400</v>
+      </c>
+      <c r="C1889" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1889" s="1">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1890">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="2">
+        <v>94450</v>
+      </c>
+      <c r="C1890" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1890" s="1">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1891">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="2">
+        <v>94500</v>
+      </c>
+      <c r="C1891" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1891" s="1">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1892">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="2">
+        <v>94550</v>
+      </c>
+      <c r="C1892" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1892" s="1">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1893">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="2">
+        <v>94600</v>
+      </c>
+      <c r="C1893" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1893" s="1">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1894">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="2">
+        <v>94650</v>
+      </c>
+      <c r="C1894" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1894" s="1">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1895">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="2">
+        <v>94700</v>
+      </c>
+      <c r="C1895" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1895" s="1">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1896">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="2">
+        <v>94750</v>
+      </c>
+      <c r="C1896" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1896" s="1">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1897">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="2">
+        <v>94800</v>
+      </c>
+      <c r="C1897" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1897" s="1">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1898">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="2">
+        <v>94850</v>
+      </c>
+      <c r="C1898" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1898" s="1">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1899">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="2">
+        <v>94900</v>
+      </c>
+      <c r="C1899" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1899" s="1">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1900">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="2">
+        <v>94950</v>
+      </c>
+      <c r="C1900" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1900" s="1">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1901">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="2">
+        <v>95000</v>
+      </c>
+      <c r="C1901" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1901" s="1">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1902">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="2">
+        <v>95050</v>
+      </c>
+      <c r="C1902" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1902" s="1">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1903">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="2">
+        <v>95100</v>
+      </c>
+      <c r="C1903" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1903" s="1">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1904">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="2">
+        <v>95150</v>
+      </c>
+      <c r="C1904" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1904" s="1">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1905">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="2">
+        <v>95200</v>
+      </c>
+      <c r="C1905" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1905" s="1">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1906">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="2">
+        <v>95250</v>
+      </c>
+      <c r="C1906" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1906" s="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1907">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="2">
+        <v>95300</v>
+      </c>
+      <c r="C1907" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1907" s="1">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1908">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="2">
+        <v>95350</v>
+      </c>
+      <c r="C1908" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1908" s="1">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1909">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="2">
+        <v>95400</v>
+      </c>
+      <c r="C1909" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1909" s="1">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1910">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="2">
+        <v>95450</v>
+      </c>
+      <c r="C1910" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1910" s="1">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1911">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="2">
+        <v>95500</v>
+      </c>
+      <c r="C1911" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1911" s="1">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1912">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="2">
+        <v>95550</v>
+      </c>
+      <c r="C1912" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1912" s="1">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1913">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="2">
+        <v>95600</v>
+      </c>
+      <c r="C1913" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1913" s="1">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1914">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="2">
+        <v>95650</v>
+      </c>
+      <c r="C1914" s="1">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="D1914" s="1">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1915">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="2">
+        <v>95700</v>
+      </c>
+      <c r="C1915" s="1">
+        <f t="shared" ref="C1915:C1978" si="33">C1914</f>
+        <v>-1</v>
+      </c>
+      <c r="D1915" s="1">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1916">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="2">
+        <v>95750</v>
+      </c>
+      <c r="C1916" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1916" s="1">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1917">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="2">
+        <v>95800</v>
+      </c>
+      <c r="C1917" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1917" s="1">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1918">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="2">
+        <v>95850</v>
+      </c>
+      <c r="C1918" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1918" s="1">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1919">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="2">
+        <v>95900</v>
+      </c>
+      <c r="C1919" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1919" s="1">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1920">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="2">
+        <v>95950</v>
+      </c>
+      <c r="C1920" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1920" s="1">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1921">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="2">
+        <v>96000</v>
+      </c>
+      <c r="C1921" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1921" s="1">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1922">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="2">
+        <v>96050</v>
+      </c>
+      <c r="C1922" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1922" s="1">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1923">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="2">
+        <v>96100</v>
+      </c>
+      <c r="C1923" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1923" s="1">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1924">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="2">
+        <v>96150</v>
+      </c>
+      <c r="C1924" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1924" s="1">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1925">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="2">
+        <v>96200</v>
+      </c>
+      <c r="C1925" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1925" s="1">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1926">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="2">
+        <v>96250</v>
+      </c>
+      <c r="C1926" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1926" s="1">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1927">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="2">
+        <v>96300</v>
+      </c>
+      <c r="C1927" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1927" s="1">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1928">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="2">
+        <v>96350</v>
+      </c>
+      <c r="C1928" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1928" s="1">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1929">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="2">
+        <v>96400</v>
+      </c>
+      <c r="C1929" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1929" s="1">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1930">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="2">
+        <v>96450</v>
+      </c>
+      <c r="C1930" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1930" s="1">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1931">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="2">
+        <v>96500</v>
+      </c>
+      <c r="C1931" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1931" s="1">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1932">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="2">
+        <v>96550</v>
+      </c>
+      <c r="C1932" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1932" s="1">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1933">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="2">
+        <v>96600</v>
+      </c>
+      <c r="C1933" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1933" s="1">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1934">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="2">
+        <v>96650</v>
+      </c>
+      <c r="C1934" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1934" s="1">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1935">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="2">
+        <v>96700</v>
+      </c>
+      <c r="C1935" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1935" s="1">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1936">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="2">
+        <v>96750</v>
+      </c>
+      <c r="C1936" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1936" s="1">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1937">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="2">
+        <v>96800</v>
+      </c>
+      <c r="C1937" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1937" s="1">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1938">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="2">
+        <v>96850</v>
+      </c>
+      <c r="C1938" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1938" s="1">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1939">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="2">
+        <v>96900</v>
+      </c>
+      <c r="C1939" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1939" s="1">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1940">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="2">
+        <v>96950</v>
+      </c>
+      <c r="C1940" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1940" s="1">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1941">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="2">
+        <v>97000</v>
+      </c>
+      <c r="C1941" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1941" s="1">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1942">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="2">
+        <v>97050</v>
+      </c>
+      <c r="C1942" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1942" s="1">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1943">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="2">
+        <v>97100</v>
+      </c>
+      <c r="C1943" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1943" s="1">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1944">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="2">
+        <v>97150</v>
+      </c>
+      <c r="C1944" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1944" s="1">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1945">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="2">
+        <v>97200</v>
+      </c>
+      <c r="C1945" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1945" s="1">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1946">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="2">
+        <v>97250</v>
+      </c>
+      <c r="C1946" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1946" s="1">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1947">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="2">
+        <v>97300</v>
+      </c>
+      <c r="C1947" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1947" s="1">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1948">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="2">
+        <v>97350</v>
+      </c>
+      <c r="C1948" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1948" s="1">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1949">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="2">
+        <v>97400</v>
+      </c>
+      <c r="C1949" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1949" s="1">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1950">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="2">
+        <v>97450</v>
+      </c>
+      <c r="C1950" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1950" s="1">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1951">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="2">
+        <v>97500</v>
+      </c>
+      <c r="C1951" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1951" s="1">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1952">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="2">
+        <v>97550</v>
+      </c>
+      <c r="C1952" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1952" s="1">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1953">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="2">
+        <v>97600</v>
+      </c>
+      <c r="C1953" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1953" s="1">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1954">
+        <v>1952</v>
+      </c>
+      <c r="B1954" s="2">
+        <v>97650</v>
+      </c>
+      <c r="C1954" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1954" s="1">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1955">
+        <v>1953</v>
+      </c>
+      <c r="B1955" s="2">
+        <v>97700</v>
+      </c>
+      <c r="C1955" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1955" s="1">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1956">
+        <v>1954</v>
+      </c>
+      <c r="B1956" s="2">
+        <v>97750</v>
+      </c>
+      <c r="C1956" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1956" s="1">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1957">
+        <v>1955</v>
+      </c>
+      <c r="B1957" s="2">
+        <v>97800</v>
+      </c>
+      <c r="C1957" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1957" s="1">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1958">
+        <v>1956</v>
+      </c>
+      <c r="B1958" s="2">
+        <v>97850</v>
+      </c>
+      <c r="C1958" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1958" s="1">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1959">
+        <v>1957</v>
+      </c>
+      <c r="B1959" s="2">
+        <v>97900</v>
+      </c>
+      <c r="C1959" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1959" s="1">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1960">
+        <v>1958</v>
+      </c>
+      <c r="B1960" s="2">
+        <v>97950</v>
+      </c>
+      <c r="C1960" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1960" s="1">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1961">
+        <v>1959</v>
+      </c>
+      <c r="B1961" s="2">
+        <v>98000</v>
+      </c>
+      <c r="C1961" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1961" s="1">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1962">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="2">
+        <v>98050</v>
+      </c>
+      <c r="C1962" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1962" s="1">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1963">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="2">
+        <v>98100</v>
+      </c>
+      <c r="C1963" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1963" s="1">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1964">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="2">
+        <v>98150</v>
+      </c>
+      <c r="C1964" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1964" s="1">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1965">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="2">
+        <v>98200</v>
+      </c>
+      <c r="C1965" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1965" s="1">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1966">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="2">
+        <v>98250</v>
+      </c>
+      <c r="C1966" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1966" s="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1967">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="2">
+        <v>98300</v>
+      </c>
+      <c r="C1967" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1967" s="1">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1968">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="2">
+        <v>98350</v>
+      </c>
+      <c r="C1968" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1968" s="1">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1969">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="2">
+        <v>98400</v>
+      </c>
+      <c r="C1969" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1969" s="1">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1970">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="2">
+        <v>98450</v>
+      </c>
+      <c r="C1970" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1970" s="1">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1971">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="2">
+        <v>98500</v>
+      </c>
+      <c r="C1971" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1971" s="1">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1972">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="2">
+        <v>98550</v>
+      </c>
+      <c r="C1972" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1972" s="1">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1973">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="2">
+        <v>98600</v>
+      </c>
+      <c r="C1973" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1973" s="1">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1974">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="2">
+        <v>98650</v>
+      </c>
+      <c r="C1974" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1974" s="1">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1975">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="2">
+        <v>98700</v>
+      </c>
+      <c r="C1975" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1975" s="1">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1976">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="2">
+        <v>98750</v>
+      </c>
+      <c r="C1976" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1976" s="1">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1977">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="2">
+        <v>98800</v>
+      </c>
+      <c r="C1977" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1977" s="1">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1978">
+        <v>1976</v>
+      </c>
+      <c r="B1978" s="2">
+        <v>98850</v>
+      </c>
+      <c r="C1978" s="1">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="D1978" s="1">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1979">
+        <v>1977</v>
+      </c>
+      <c r="B1979" s="2">
+        <v>98900</v>
+      </c>
+      <c r="C1979" s="1">
+        <f t="shared" ref="C1979:C2001" si="34">C1978</f>
+        <v>-1</v>
+      </c>
+      <c r="D1979" s="1">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1980">
+        <v>1978</v>
+      </c>
+      <c r="B1980" s="2">
+        <v>98950</v>
+      </c>
+      <c r="C1980" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1980" s="1">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1981">
+        <v>1979</v>
+      </c>
+      <c r="B1981" s="2">
+        <v>99000</v>
+      </c>
+      <c r="C1981" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1981" s="1">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1982">
+        <v>1980</v>
+      </c>
+      <c r="B1982" s="2">
+        <v>99050</v>
+      </c>
+      <c r="C1982" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1982" s="1">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1983">
+        <v>1981</v>
+      </c>
+      <c r="B1983" s="2">
+        <v>99100</v>
+      </c>
+      <c r="C1983" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1983" s="1">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1984">
+        <v>1982</v>
+      </c>
+      <c r="B1984" s="2">
+        <v>99150</v>
+      </c>
+      <c r="C1984" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1984" s="1">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1985">
+        <v>1983</v>
+      </c>
+      <c r="B1985" s="2">
+        <v>99200</v>
+      </c>
+      <c r="C1985" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1985" s="1">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1986">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="2">
+        <v>99250</v>
+      </c>
+      <c r="C1986" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1986" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1987">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="2">
+        <v>99300</v>
+      </c>
+      <c r="C1987" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1987" s="1">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1988">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="2">
+        <v>99350</v>
+      </c>
+      <c r="C1988" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1988" s="1">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1989">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="2">
+        <v>99400</v>
+      </c>
+      <c r="C1989" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1989" s="1">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1990">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="2">
+        <v>99450</v>
+      </c>
+      <c r="C1990" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1990" s="1">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1991">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="2">
+        <v>99500</v>
+      </c>
+      <c r="C1991" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1991" s="1">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1992">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="2">
+        <v>99550</v>
+      </c>
+      <c r="C1992" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1992" s="1">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1993">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="2">
+        <v>99600</v>
+      </c>
+      <c r="C1993" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1993" s="1">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1994">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="2">
+        <v>99650</v>
+      </c>
+      <c r="C1994" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1994" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1995">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="2">
+        <v>99700</v>
+      </c>
+      <c r="C1995" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1995" s="1">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1996">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="2">
+        <v>99750</v>
+      </c>
+      <c r="C1996" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1996" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1997">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="2">
+        <v>99800</v>
+      </c>
+      <c r="C1997" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1997" s="1">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1998">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="2">
+        <v>99850</v>
+      </c>
+      <c r="C1998" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1998" s="1">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1999">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="2">
+        <v>99900</v>
+      </c>
+      <c r="C1999" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D1999" s="1">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2000">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="2">
+        <v>99950</v>
+      </c>
+      <c r="C2000" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D2000" s="1">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2001">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="2">
+        <v>100000</v>
+      </c>
+      <c r="C2001" s="1">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="D2001" s="1">
+        <v>1995</v>
       </c>
     </row>
   </sheetData>
